--- a/capiq_data/in_process_data/IQ92001.xlsx
+++ b/capiq_data/in_process_data/IQ92001.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E767263-9FCA-4AFB-95BA-5853D15461A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D83D4-1BF5-4FC1-B204-B9F96913FD4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b1218d91-e012-472c-b1fb-ee1bbd4b3383"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4a67e9c5-7b86-4cff-b8e6-ccae3bd153dd"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1062</v>
+        <v>677</v>
       </c>
       <c r="D2">
-        <v>7005</v>
+        <v>5203</v>
       </c>
       <c r="E2">
-        <v>57616</v>
+        <v>26088</v>
       </c>
       <c r="F2">
-        <v>5505</v>
+        <v>4699</v>
       </c>
       <c r="G2">
-        <v>121451</v>
+        <v>65312</v>
       </c>
       <c r="H2">
-        <v>146689</v>
+        <v>154423</v>
       </c>
       <c r="I2">
-        <v>39418</v>
+        <v>21365</v>
       </c>
       <c r="J2">
-        <v>66284</v>
+        <v>5211</v>
       </c>
       <c r="K2">
-        <v>4599</v>
+        <v>36030</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>53216</v>
+        <v>63522</v>
       </c>
       <c r="O2">
-        <v>130459</v>
+        <v>142739</v>
       </c>
       <c r="P2">
-        <v>71015</v>
+        <v>41241</v>
       </c>
       <c r="Q2">
-        <v>-4985</v>
+        <v>-472</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>61000</v>
+        <v>88850</v>
       </c>
       <c r="T2">
-        <v>16230</v>
+        <v>11684</v>
       </c>
       <c r="U2">
-        <v>15984</v>
+        <v>8487</v>
       </c>
       <c r="V2">
-        <v>1708</v>
+        <v>733</v>
       </c>
       <c r="W2">
-        <v>-217</v>
+        <v>-108</v>
       </c>
       <c r="X2">
-        <v>-199</v>
+        <v>3822</v>
       </c>
       <c r="Y2">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2755</v>
+        <v>-1215</v>
       </c>
       <c r="AA2">
-        <v>1062</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1177</v>
+        <v>538</v>
       </c>
       <c r="D3">
-        <v>6934</v>
+        <v>4822</v>
       </c>
       <c r="E3">
-        <v>55232</v>
+        <v>26253</v>
       </c>
       <c r="F3">
-        <v>5193</v>
+        <v>4305</v>
       </c>
       <c r="G3">
-        <v>119305</v>
+        <v>62077</v>
       </c>
       <c r="H3">
-        <v>143979</v>
+        <v>146218</v>
       </c>
       <c r="I3">
-        <v>41874</v>
+        <v>20923</v>
       </c>
       <c r="J3">
-        <v>60730</v>
+        <v>5411</v>
       </c>
       <c r="K3">
-        <v>3655</v>
+        <v>31170</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-3764</v>
       </c>
       <c r="M3">
-        <v>-5731</v>
+        <v>-3336</v>
       </c>
       <c r="N3">
-        <v>50803</v>
+        <v>58086</v>
       </c>
       <c r="O3">
-        <v>126497</v>
+        <v>134254</v>
       </c>
       <c r="P3">
-        <v>64385</v>
+        <v>36581</v>
       </c>
       <c r="Q3">
-        <v>5671</v>
+        <v>-423</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>17482</v>
+        <v>11964</v>
       </c>
       <c r="U3">
-        <v>21593</v>
+        <v>8064</v>
       </c>
       <c r="V3">
-        <v>537</v>
+        <v>1745</v>
       </c>
       <c r="W3">
-        <v>-217</v>
+        <v>-106</v>
       </c>
       <c r="X3">
-        <v>-3616</v>
+        <v>-5237</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3521</v>
+        <v>417</v>
       </c>
       <c r="AA3">
-        <v>1177</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>7261</v>
+        <v>4191</v>
       </c>
       <c r="E4">
-        <v>56566</v>
+        <v>26090</v>
       </c>
       <c r="F4">
-        <v>5475</v>
+        <v>3646</v>
       </c>
       <c r="G4">
-        <v>124406</v>
+        <v>64358</v>
       </c>
       <c r="H4">
-        <v>147796</v>
+        <v>152190</v>
       </c>
       <c r="I4">
-        <v>43222</v>
+        <v>22425</v>
       </c>
       <c r="J4">
-        <v>61395</v>
+        <v>8205</v>
       </c>
       <c r="K4">
-        <v>3906</v>
+        <v>30564</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>52361</v>
+        <v>59851</v>
       </c>
       <c r="O4">
-        <v>129591</v>
+        <v>140429</v>
       </c>
       <c r="P4">
-        <v>65301</v>
+        <v>38769</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>18205</v>
+        <v>11761</v>
       </c>
       <c r="U4">
-        <v>22604</v>
+        <v>8481</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2934</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-107</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-2170</v>
       </c>
       <c r="AA4">
-        <v>1331</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1235</v>
+        <v>298</v>
       </c>
       <c r="D5">
-        <v>7322</v>
+        <v>4753</v>
       </c>
       <c r="E5">
-        <v>56427</v>
+        <v>25558</v>
       </c>
       <c r="F5">
-        <v>5568</v>
+        <v>4193</v>
       </c>
       <c r="G5">
-        <v>126173</v>
+        <v>63893</v>
       </c>
       <c r="H5">
-        <v>148693</v>
+        <v>145557</v>
       </c>
       <c r="I5">
-        <v>43727</v>
+        <v>20127</v>
       </c>
       <c r="J5">
-        <v>61767</v>
+        <v>7658</v>
       </c>
       <c r="K5">
-        <v>3870</v>
+        <v>30808</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>52652</v>
+        <v>57559</v>
       </c>
       <c r="O5">
-        <v>130593</v>
+        <v>133329</v>
       </c>
       <c r="P5">
-        <v>65637</v>
+        <v>38466</v>
       </c>
       <c r="Q5">
-        <v>1863</v>
+        <v>1379</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>18100</v>
+        <v>12228</v>
       </c>
       <c r="U5">
-        <v>24512</v>
+        <v>9860</v>
       </c>
       <c r="V5">
-        <v>2398</v>
+        <v>473</v>
       </c>
       <c r="W5">
-        <v>-213</v>
+        <v>-107</v>
       </c>
       <c r="X5">
-        <v>162</v>
+        <v>-909</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>14</v>
+        <v>817</v>
       </c>
       <c r="AA5">
-        <v>1235</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1192</v>
+        <v>297</v>
       </c>
       <c r="D6">
-        <v>7333</v>
+        <v>4803</v>
       </c>
       <c r="E6">
-        <v>61166</v>
+        <v>26440</v>
       </c>
       <c r="F6">
-        <v>5680</v>
+        <v>4199</v>
       </c>
       <c r="G6">
-        <v>134045</v>
+        <v>63399</v>
       </c>
       <c r="H6">
-        <v>153337</v>
+        <v>151100</v>
       </c>
       <c r="I6">
-        <v>48356</v>
+        <v>21377</v>
       </c>
       <c r="J6">
-        <v>59447</v>
+        <v>8288</v>
       </c>
       <c r="K6">
-        <v>6515</v>
+        <v>31569</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>64052</v>
+        <v>59136</v>
       </c>
       <c r="O6">
-        <v>134543</v>
+        <v>139063</v>
       </c>
       <c r="P6">
-        <v>66085</v>
+        <v>39857</v>
       </c>
       <c r="Q6">
-        <v>-52</v>
+        <v>-2638</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>62500</v>
+        <v>84417</v>
       </c>
       <c r="T6">
-        <v>18794</v>
+        <v>12037</v>
       </c>
       <c r="U6">
-        <v>24423</v>
+        <v>7222</v>
       </c>
       <c r="V6">
-        <v>3394</v>
+        <v>172</v>
       </c>
       <c r="W6">
-        <v>-215</v>
+        <v>-104</v>
       </c>
       <c r="X6">
-        <v>2021</v>
+        <v>2420</v>
       </c>
       <c r="Y6">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1338</v>
+        <v>-1745</v>
       </c>
       <c r="AA6">
-        <v>1192</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1256</v>
+        <v>618</v>
       </c>
       <c r="D7">
-        <v>7175</v>
+        <v>4890</v>
       </c>
       <c r="E7">
-        <v>58882</v>
+        <v>24964</v>
       </c>
       <c r="F7">
-        <v>5514</v>
+        <v>4329</v>
       </c>
       <c r="G7">
-        <v>131214</v>
+        <v>59898</v>
       </c>
       <c r="H7">
-        <v>151784</v>
+        <v>146783</v>
       </c>
       <c r="I7">
-        <v>49596</v>
+        <v>20951</v>
       </c>
       <c r="J7">
-        <v>56844</v>
+        <v>11322</v>
       </c>
       <c r="K7">
-        <v>3758</v>
+        <v>24889</v>
       </c>
       <c r="L7">
-        <v>-540</v>
+        <v>-5667</v>
       </c>
       <c r="M7">
-        <v>-4501</v>
+        <v>-4538</v>
       </c>
       <c r="N7">
-        <v>58082</v>
+        <v>52012</v>
       </c>
       <c r="O7">
-        <v>131877</v>
+        <v>134288</v>
       </c>
       <c r="P7">
-        <v>60602</v>
+        <v>36211</v>
       </c>
       <c r="Q7">
-        <v>2189</v>
+        <v>281</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>19907</v>
+        <v>12495</v>
       </c>
       <c r="U7">
-        <v>26526</v>
+        <v>7503</v>
       </c>
       <c r="V7">
-        <v>3432</v>
+        <v>1382</v>
       </c>
       <c r="W7">
-        <v>-211</v>
+        <v>-109</v>
       </c>
       <c r="X7">
-        <v>-3316</v>
+        <v>-4413</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AA7">
-        <v>1256</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1339</v>
+        <v>683</v>
       </c>
       <c r="D8">
-        <v>7504</v>
+        <v>5098</v>
       </c>
       <c r="E8">
-        <v>59910</v>
+        <v>24089</v>
       </c>
       <c r="F8">
-        <v>5862</v>
+        <v>3789</v>
       </c>
       <c r="G8">
-        <v>127810</v>
+        <v>60724</v>
       </c>
       <c r="H8">
-        <v>148128</v>
+        <v>145897</v>
       </c>
       <c r="I8">
-        <v>47729</v>
+        <v>20999</v>
       </c>
       <c r="J8">
-        <v>55953</v>
+        <v>15969</v>
       </c>
       <c r="K8">
-        <v>3553</v>
+        <v>18741</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>55789</v>
+        <v>46636</v>
       </c>
       <c r="O8">
-        <v>128861</v>
+        <v>132607</v>
       </c>
       <c r="P8">
-        <v>59506</v>
+        <v>34710</v>
       </c>
       <c r="Q8">
-        <v>-5010</v>
+        <v>1400</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>19267</v>
+        <v>13290</v>
       </c>
       <c r="U8">
-        <v>22007</v>
+        <v>8903</v>
       </c>
       <c r="V8">
-        <v>3310</v>
+        <v>3472</v>
       </c>
       <c r="W8">
-        <v>-235</v>
+        <v>-106</v>
       </c>
       <c r="X8">
-        <v>-4470</v>
+        <v>-975</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>314</v>
+        <v>-867</v>
       </c>
       <c r="AA8">
-        <v>1339</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1250</v>
+        <v>687</v>
       </c>
       <c r="D9">
-        <v>7383</v>
+        <v>5133</v>
       </c>
       <c r="E9">
-        <v>60791</v>
+        <v>25014</v>
       </c>
       <c r="F9">
-        <v>5686</v>
+        <v>3765</v>
       </c>
       <c r="G9">
-        <v>132803</v>
+        <v>61158</v>
       </c>
       <c r="H9">
-        <v>152873</v>
+        <v>145333</v>
       </c>
       <c r="I9">
-        <v>50288</v>
+        <v>20983</v>
       </c>
       <c r="J9">
-        <v>56271</v>
+        <v>15222</v>
       </c>
       <c r="K9">
-        <v>4027</v>
+        <v>19173</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>58769</v>
+        <v>46902</v>
       </c>
       <c r="O9">
-        <v>133395</v>
+        <v>131355</v>
       </c>
       <c r="P9">
-        <v>60298</v>
+        <v>34395</v>
       </c>
       <c r="Q9">
-        <v>3071</v>
+        <v>-910</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>19478</v>
+        <v>13978</v>
       </c>
       <c r="U9">
-        <v>25075</v>
+        <v>7993</v>
       </c>
       <c r="V9">
-        <v>3872</v>
+        <v>-340</v>
       </c>
       <c r="W9">
-        <v>-229</v>
+        <v>-106</v>
       </c>
       <c r="X9">
-        <v>303</v>
+        <v>1631</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>319</v>
+        <v>-840</v>
       </c>
       <c r="AA9">
-        <v>1250</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="D10">
-        <v>7503</v>
+        <v>5275</v>
       </c>
       <c r="E10">
-        <v>64309</v>
+        <v>27822</v>
       </c>
       <c r="F10">
-        <v>5449</v>
+        <v>3854</v>
       </c>
       <c r="G10">
-        <v>135594</v>
+        <v>68252</v>
       </c>
       <c r="H10">
-        <v>153140</v>
+        <v>157253</v>
       </c>
       <c r="I10">
-        <v>49809</v>
+        <v>27552</v>
       </c>
       <c r="J10">
-        <v>58855</v>
+        <v>16819</v>
       </c>
       <c r="K10">
-        <v>3846</v>
+        <v>21103</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>62559</v>
+        <v>55278</v>
       </c>
       <c r="O10">
-        <v>134254</v>
+        <v>143392</v>
       </c>
       <c r="P10">
-        <v>62819</v>
+        <v>37922</v>
       </c>
       <c r="Q10">
-        <v>-2893</v>
+        <v>2295</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>63500</v>
+        <v>75459</v>
       </c>
       <c r="T10">
-        <v>18886</v>
+        <v>13861</v>
       </c>
       <c r="U10">
-        <v>22192</v>
+        <v>10288</v>
       </c>
       <c r="V10">
-        <v>-3532</v>
+        <v>3986</v>
       </c>
       <c r="W10">
-        <v>-227</v>
+        <v>-109</v>
       </c>
       <c r="X10">
-        <v>4215</v>
+        <v>7947</v>
       </c>
       <c r="Y10">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>413</v>
+        <v>-4262</v>
       </c>
       <c r="AA10">
-        <v>637</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1280</v>
+        <v>692</v>
       </c>
       <c r="D11">
-        <v>7465</v>
+        <v>5254</v>
       </c>
       <c r="E11">
-        <v>61460</v>
+        <v>27271</v>
       </c>
       <c r="F11">
-        <v>5756</v>
+        <v>3908</v>
       </c>
       <c r="G11">
-        <v>137034</v>
+        <v>64285</v>
       </c>
       <c r="H11">
-        <v>156855</v>
+        <v>153471</v>
       </c>
       <c r="I11">
-        <v>55531</v>
+        <v>25987</v>
       </c>
       <c r="J11">
-        <v>56366</v>
+        <v>17824</v>
       </c>
       <c r="K11">
-        <v>3359</v>
+        <v>17689</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-3101</v>
       </c>
       <c r="M11">
-        <v>-3001</v>
+        <v>-4211</v>
       </c>
       <c r="N11">
-        <v>63122</v>
+        <v>50058</v>
       </c>
       <c r="O11">
-        <v>137565</v>
+        <v>139402</v>
       </c>
       <c r="P11">
-        <v>59725</v>
+        <v>35513</v>
       </c>
       <c r="Q11">
-        <v>5714</v>
+        <v>-1883</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19290</v>
+        <v>14069</v>
       </c>
       <c r="U11">
-        <v>27846</v>
+        <v>8405</v>
       </c>
       <c r="V11">
-        <v>7547</v>
+        <v>-1282</v>
       </c>
       <c r="W11">
-        <v>-222</v>
+        <v>-108</v>
       </c>
       <c r="X11">
-        <v>-1830</v>
+        <v>-2368</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-205</v>
+        <v>241</v>
       </c>
       <c r="AA11">
-        <v>1280</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1405</v>
+        <v>762</v>
       </c>
       <c r="D12">
-        <v>7723</v>
+        <v>5642</v>
       </c>
       <c r="E12">
-        <v>62264</v>
+        <v>27921</v>
       </c>
       <c r="F12">
-        <v>5929</v>
+        <v>4106</v>
       </c>
       <c r="G12">
-        <v>132958</v>
+        <v>64925</v>
       </c>
       <c r="H12">
-        <v>151933</v>
+        <v>159043</v>
       </c>
       <c r="I12">
-        <v>54828</v>
+        <v>26329</v>
       </c>
       <c r="J12">
-        <v>52675</v>
+        <v>18238</v>
       </c>
       <c r="K12">
-        <v>2961</v>
+        <v>16626</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>61914</v>
+        <v>49734</v>
       </c>
       <c r="O12">
-        <v>132899</v>
+        <v>144551</v>
       </c>
       <c r="P12">
-        <v>55636</v>
+        <v>34864</v>
       </c>
       <c r="Q12">
-        <v>-4835</v>
+        <v>-1716</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>19034</v>
+        <v>14492</v>
       </c>
       <c r="U12">
-        <v>22952</v>
+        <v>6689</v>
       </c>
       <c r="V12">
-        <v>2682</v>
+        <v>1072</v>
       </c>
       <c r="W12">
-        <v>-221</v>
+        <v>-105</v>
       </c>
       <c r="X12">
-        <v>-5444</v>
+        <v>1559</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>331</v>
+        <v>-1907</v>
       </c>
       <c r="AA12">
-        <v>1405</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1366</v>
+        <v>770</v>
       </c>
       <c r="D13">
-        <v>7877</v>
+        <v>5688</v>
       </c>
       <c r="E13">
-        <v>62215</v>
+        <v>28471</v>
       </c>
       <c r="F13">
-        <v>6061</v>
+        <v>4084</v>
       </c>
       <c r="G13">
-        <v>131415</v>
+        <v>65344</v>
       </c>
       <c r="H13">
-        <v>150103</v>
+        <v>163963</v>
       </c>
       <c r="I13">
-        <v>53848</v>
+        <v>26803</v>
       </c>
       <c r="J13">
-        <v>52529</v>
+        <v>18596</v>
       </c>
       <c r="K13">
-        <v>3481</v>
+        <v>15592</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>61417</v>
+        <v>49173</v>
       </c>
       <c r="O13">
-        <v>130887</v>
+        <v>149128</v>
       </c>
       <c r="P13">
-        <v>56010</v>
+        <v>34188</v>
       </c>
       <c r="Q13">
-        <v>-843</v>
+        <v>-661</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>19216</v>
+        <v>14835</v>
       </c>
       <c r="U13">
-        <v>22157</v>
+        <v>6028</v>
       </c>
       <c r="V13">
-        <v>-2026</v>
+        <v>1690</v>
       </c>
       <c r="W13">
-        <v>-250</v>
+        <v>-129</v>
       </c>
       <c r="X13">
-        <v>682</v>
+        <v>-5</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>32</v>
+        <v>-77</v>
       </c>
       <c r="AA13">
-        <v>1366</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1308</v>
+        <v>763</v>
       </c>
       <c r="D14">
-        <v>8077</v>
+        <v>6276</v>
       </c>
       <c r="E14">
-        <v>66585</v>
+        <v>32300</v>
       </c>
       <c r="F14">
-        <v>6172</v>
+        <v>4503</v>
       </c>
       <c r="G14">
-        <v>136069</v>
+        <v>72020</v>
       </c>
       <c r="H14">
-        <v>153375</v>
+        <v>174547</v>
       </c>
       <c r="I14">
-        <v>52378</v>
+        <v>27841</v>
       </c>
       <c r="J14">
-        <v>55221</v>
+        <v>20263</v>
       </c>
       <c r="K14">
-        <v>5463</v>
+        <v>19046</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>66518</v>
+        <v>53984</v>
       </c>
       <c r="O14">
-        <v>133879</v>
+        <v>159224</v>
       </c>
       <c r="P14">
-        <v>60793</v>
+        <v>39700</v>
       </c>
       <c r="Q14">
-        <v>-2800</v>
+        <v>128</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>63000</v>
+        <v>78236</v>
       </c>
       <c r="T14">
-        <v>19496</v>
+        <v>15323</v>
       </c>
       <c r="U14">
-        <v>19343</v>
+        <v>6156</v>
       </c>
       <c r="V14">
-        <v>344</v>
+        <v>1058</v>
       </c>
       <c r="W14">
-        <v>-246</v>
+        <v>-129</v>
       </c>
       <c r="X14">
-        <v>2701</v>
+        <v>6655</v>
       </c>
       <c r="Y14">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>-1381</v>
       </c>
       <c r="AA14">
-        <v>1308</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1432</v>
+        <v>794</v>
       </c>
       <c r="D15">
-        <v>7688</v>
+        <v>6222</v>
       </c>
       <c r="E15">
-        <v>63476</v>
+        <v>31004</v>
       </c>
       <c r="F15">
-        <v>5884</v>
+        <v>4638</v>
       </c>
       <c r="G15">
-        <v>132539</v>
+        <v>68076</v>
       </c>
       <c r="H15">
-        <v>151497</v>
+        <v>178096</v>
       </c>
       <c r="I15">
-        <v>54515</v>
+        <v>28863</v>
       </c>
       <c r="J15">
-        <v>54095</v>
+        <v>23738</v>
       </c>
       <c r="K15">
-        <v>3002</v>
+        <v>15855</v>
       </c>
       <c r="L15">
-        <v>-2245</v>
+        <v>-3446</v>
       </c>
       <c r="M15">
-        <v>-3500</v>
+        <v>-2094</v>
       </c>
       <c r="N15">
-        <v>61360</v>
+        <v>51507</v>
       </c>
       <c r="O15">
-        <v>131520</v>
+        <v>162363</v>
       </c>
       <c r="P15">
-        <v>57097</v>
+        <v>39593</v>
       </c>
       <c r="Q15">
-        <v>1254</v>
+        <v>-909</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>19977</v>
+        <v>15733</v>
       </c>
       <c r="U15">
-        <v>20499</v>
+        <v>4817</v>
       </c>
       <c r="V15">
-        <v>3285</v>
+        <v>1972</v>
       </c>
       <c r="W15">
-        <v>-246</v>
+        <v>-129</v>
       </c>
       <c r="X15">
-        <v>-3561</v>
+        <v>-322</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>327</v>
+        <v>-3591</v>
       </c>
       <c r="AA15">
-        <v>1432</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1529</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>8145</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>65871</v>
+        <v>33629</v>
       </c>
       <c r="F16">
-        <v>6180</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>133192</v>
+        <v>72463</v>
       </c>
       <c r="H16">
-        <v>152384</v>
+        <v>179185</v>
       </c>
       <c r="I16">
-        <v>53781</v>
+        <v>30154</v>
       </c>
       <c r="J16">
-        <v>54836</v>
+        <v>23624</v>
       </c>
       <c r="K16">
-        <v>3610</v>
+        <v>16706</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>61109</v>
+        <v>53963</v>
       </c>
       <c r="O16">
-        <v>132171</v>
+        <v>164027</v>
       </c>
       <c r="P16">
-        <v>58446</v>
+        <v>40330</v>
       </c>
       <c r="Q16">
-        <v>-2310</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>20213</v>
+        <v>15158</v>
       </c>
       <c r="U16">
-        <v>18133</v>
+        <v>6071</v>
       </c>
       <c r="V16">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-243</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-815</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>7818</v>
+        <v>4719</v>
       </c>
       <c r="E17">
-        <v>65766</v>
+        <v>32406</v>
       </c>
       <c r="F17">
-        <v>5918</v>
+        <v>3105</v>
       </c>
       <c r="G17">
-        <v>134961</v>
+        <v>73035</v>
       </c>
       <c r="H17">
-        <v>153862</v>
+        <v>179273</v>
       </c>
       <c r="I17">
-        <v>54213</v>
+        <v>28046</v>
       </c>
       <c r="J17">
-        <v>55712</v>
+        <v>30630</v>
       </c>
       <c r="K17">
-        <v>3475</v>
+        <v>10506</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>61227</v>
+        <v>45534</v>
       </c>
       <c r="O17">
-        <v>133646</v>
+        <v>163433</v>
       </c>
       <c r="P17">
-        <v>59187</v>
+        <v>41136</v>
       </c>
       <c r="Q17">
-        <v>2834</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>20216</v>
+        <v>15840</v>
       </c>
       <c r="U17">
-        <v>21032</v>
+        <v>7621</v>
       </c>
       <c r="V17">
-        <v>3701</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-281</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1477</v>
+        <v>879</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1447</v>
+        <v>896</v>
       </c>
       <c r="D18">
-        <v>8350</v>
+        <v>5074</v>
       </c>
       <c r="E18">
-        <v>70104</v>
+        <v>34256</v>
       </c>
       <c r="F18">
-        <v>6266</v>
+        <v>4628</v>
       </c>
       <c r="G18">
-        <v>142113</v>
+        <v>162395</v>
       </c>
       <c r="H18">
-        <v>159103</v>
+        <v>194216</v>
       </c>
       <c r="I18">
-        <v>55471</v>
+        <v>27426</v>
       </c>
       <c r="J18">
-        <v>57924</v>
+        <v>32676</v>
       </c>
       <c r="K18">
-        <v>4127</v>
+        <v>14316</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>67602</v>
+        <v>49029</v>
       </c>
       <c r="O18">
-        <v>138430</v>
+        <v>178196</v>
       </c>
       <c r="P18">
-        <v>62082</v>
+        <v>46992</v>
       </c>
       <c r="Q18">
-        <v>1024</v>
+        <v>2834</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>54000</v>
+        <v>77500</v>
       </c>
       <c r="T18">
-        <v>20673</v>
+        <v>16020</v>
       </c>
       <c r="U18">
-        <v>22084</v>
+        <v>7808</v>
       </c>
       <c r="V18">
-        <v>2404</v>
+        <v>2301</v>
       </c>
       <c r="W18">
-        <v>-271</v>
+        <v>-152</v>
       </c>
       <c r="X18">
-        <v>3743</v>
+        <v>8111</v>
       </c>
       <c r="Y18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1199</v>
+        <v>-909</v>
       </c>
       <c r="AA18">
-        <v>1447</v>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1525</v>
+        <v>946</v>
       </c>
       <c r="D19">
-        <v>7536</v>
+        <v>4850</v>
       </c>
       <c r="E19">
-        <v>66656</v>
+        <v>34324</v>
       </c>
       <c r="F19">
-        <v>5635</v>
+        <v>3527</v>
       </c>
       <c r="G19">
-        <v>136436</v>
+        <v>78255</v>
       </c>
       <c r="H19">
-        <v>154684</v>
+        <v>189572</v>
       </c>
       <c r="I19">
-        <v>55571</v>
+        <v>29156</v>
       </c>
       <c r="J19">
-        <v>54712</v>
+        <v>31240</v>
       </c>
       <c r="K19">
-        <v>2451</v>
+        <v>13393</v>
       </c>
       <c r="L19">
-        <v>-1062</v>
+        <v>-1222</v>
       </c>
       <c r="M19">
-        <v>-3100</v>
+        <v>-2937</v>
       </c>
       <c r="N19">
-        <v>61386</v>
+        <v>49583</v>
       </c>
       <c r="O19">
-        <v>132854</v>
+        <v>173439</v>
       </c>
       <c r="P19">
-        <v>57163</v>
+        <v>44633</v>
       </c>
       <c r="Q19">
-        <v>1284</v>
+        <v>-628</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>21830</v>
+        <v>16133</v>
       </c>
       <c r="U19">
-        <v>23346</v>
+        <v>9279</v>
       </c>
       <c r="V19">
-        <v>2126</v>
+        <v>1842</v>
       </c>
       <c r="W19">
-        <v>-268</v>
+        <v>-150</v>
       </c>
       <c r="X19">
-        <v>-3542</v>
+        <v>-3282</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-8</v>
+        <v>263</v>
       </c>
       <c r="AA19">
-        <v>1525</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1473</v>
+        <v>1013</v>
       </c>
       <c r="D20">
-        <v>7813</v>
+        <v>5156</v>
       </c>
       <c r="E20">
-        <v>68835</v>
+        <v>36707</v>
       </c>
       <c r="F20">
-        <v>5772</v>
+        <v>3711</v>
       </c>
       <c r="G20">
-        <v>138999</v>
+        <v>82037</v>
       </c>
       <c r="H20">
-        <v>157152</v>
+        <v>195739</v>
       </c>
       <c r="I20">
-        <v>58222</v>
+        <v>33616</v>
       </c>
       <c r="J20">
-        <v>52740</v>
+        <v>29901</v>
       </c>
       <c r="K20">
-        <v>4641</v>
+        <v>13369</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>66088</v>
+        <v>54402</v>
       </c>
       <c r="O20">
-        <v>135267</v>
+        <v>178575</v>
       </c>
       <c r="P20">
-        <v>57381</v>
+        <v>43270</v>
       </c>
       <c r="Q20">
-        <v>-2501</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>21885</v>
+        <v>17164</v>
       </c>
       <c r="U20">
-        <v>20869</v>
+        <v>9280</v>
       </c>
       <c r="V20">
-        <v>2109</v>
+        <v>3843</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-149</v>
       </c>
       <c r="X20">
-        <v>1119</v>
+        <v>1896</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-213</v>
+        <v>-1151</v>
       </c>
       <c r="AA20">
-        <v>1473</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1266</v>
+        <v>1030</v>
       </c>
       <c r="D21">
-        <v>7658</v>
+        <v>5051</v>
       </c>
       <c r="E21">
-        <v>68785</v>
+        <v>37500</v>
       </c>
       <c r="F21">
-        <v>5626</v>
+        <v>3559</v>
       </c>
       <c r="G21">
-        <v>136363</v>
+        <v>78183</v>
       </c>
       <c r="H21">
-        <v>154216</v>
+        <v>108824</v>
       </c>
       <c r="I21">
-        <v>60641</v>
+        <v>30467</v>
       </c>
       <c r="J21">
-        <v>48653</v>
+        <v>29110</v>
       </c>
       <c r="K21">
-        <v>3248</v>
+        <v>15014</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>66933</v>
+        <v>52502</v>
       </c>
       <c r="O21">
-        <v>132881</v>
+        <v>98922</v>
       </c>
       <c r="P21">
-        <v>51901</v>
+        <v>44124</v>
       </c>
       <c r="Q21">
-        <v>-1133</v>
+        <v>-1657</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>21335</v>
+        <v>9902</v>
       </c>
       <c r="U21">
-        <v>19716</v>
+        <v>7623</v>
       </c>
       <c r="V21">
-        <v>3589</v>
+        <v>1914</v>
       </c>
       <c r="W21">
-        <v>-335</v>
+        <v>-150</v>
       </c>
       <c r="X21">
-        <v>-4802</v>
+        <v>2459</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>490</v>
+        <v>363</v>
       </c>
       <c r="AA21">
-        <v>1266</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>899</v>
+        <v>745</v>
       </c>
       <c r="D22">
-        <v>7739</v>
+        <v>5313</v>
       </c>
       <c r="E22">
-        <v>58799</v>
+        <v>40801</v>
       </c>
       <c r="F22">
-        <v>5699</v>
+        <v>3732</v>
       </c>
       <c r="G22">
-        <v>144858</v>
+        <v>84106</v>
       </c>
       <c r="H22">
-        <v>161184</v>
+        <v>113960</v>
       </c>
       <c r="I22">
-        <v>66819</v>
+        <v>32082</v>
       </c>
       <c r="J22">
-        <v>48032</v>
+        <v>30688</v>
       </c>
       <c r="K22">
-        <v>5221</v>
+        <v>15633</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>79622</v>
+        <v>54890</v>
       </c>
       <c r="O22">
-        <v>140511</v>
+        <v>103411</v>
       </c>
       <c r="P22">
-        <v>53282</v>
+        <v>46414</v>
       </c>
       <c r="Q22">
-        <v>2824</v>
+        <v>-497</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>54800</v>
+        <v>65800</v>
       </c>
       <c r="T22">
-        <v>20673</v>
+        <v>10549</v>
       </c>
       <c r="U22">
-        <v>22721</v>
+        <v>7126</v>
       </c>
       <c r="V22">
-        <v>2787</v>
+        <v>446</v>
       </c>
       <c r="W22">
-        <v>-304</v>
+        <v>-148</v>
       </c>
       <c r="X22">
-        <v>5557</v>
+        <v>5370</v>
       </c>
       <c r="Y22">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="Z22">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AA22">
-        <v>899</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1426</v>
+        <v>873</v>
       </c>
       <c r="D23">
-        <v>7648</v>
+        <v>5385</v>
       </c>
       <c r="E23">
-        <v>57580</v>
+        <v>40345</v>
       </c>
       <c r="F23">
-        <v>5663</v>
+        <v>3863</v>
       </c>
       <c r="G23">
-        <v>141191</v>
+        <v>79913</v>
       </c>
       <c r="H23">
-        <v>158816</v>
+        <v>110065</v>
       </c>
       <c r="I23">
-        <v>67791</v>
+        <v>28792</v>
       </c>
       <c r="J23">
-        <v>47311</v>
+        <v>30932</v>
       </c>
       <c r="K23">
-        <v>2932</v>
+        <v>15177</v>
       </c>
       <c r="L23">
-        <v>-2217</v>
+        <v>-2251</v>
       </c>
       <c r="M23">
-        <v>-1036</v>
+        <v>-3058</v>
       </c>
       <c r="N23">
-        <v>73734</v>
+        <v>50756</v>
       </c>
       <c r="O23">
-        <v>138089</v>
+        <v>99460</v>
       </c>
       <c r="P23">
-        <v>50243</v>
+        <v>46109</v>
       </c>
       <c r="Q23">
-        <v>2283</v>
+        <v>-1733</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>20727</v>
+        <v>10605</v>
       </c>
       <c r="U23">
-        <v>25012</v>
+        <v>5393</v>
       </c>
       <c r="V23">
-        <v>2529</v>
+        <v>2005</v>
       </c>
       <c r="W23">
-        <v>-302</v>
+        <v>-149</v>
       </c>
       <c r="X23">
-        <v>-3924</v>
+        <v>-5164</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-74</v>
+        <v>277</v>
       </c>
       <c r="AA23">
-        <v>1426</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>7780</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>59928</v>
+        <v>44016</v>
       </c>
       <c r="F24">
-        <v>5733</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>141840</v>
+        <v>86609</v>
       </c>
       <c r="H24">
-        <v>159642</v>
+        <v>117281</v>
       </c>
       <c r="I24">
-        <v>66133</v>
+        <v>30857</v>
       </c>
       <c r="J24">
-        <v>50649</v>
+        <v>36173</v>
       </c>
       <c r="K24">
-        <v>2563</v>
+        <v>15035</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>71499</v>
+        <v>53079</v>
       </c>
       <c r="O24">
-        <v>138930</v>
+        <v>106806</v>
       </c>
       <c r="P24">
-        <v>53212</v>
+        <v>51208</v>
       </c>
       <c r="Q24">
-        <v>8722</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>20712</v>
+        <v>10475</v>
       </c>
       <c r="U24">
-        <v>33638</v>
+        <v>6798</v>
       </c>
       <c r="V24">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-299</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-410</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>2015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1142</v>
+        <v>967</v>
       </c>
       <c r="D25">
-        <v>7281</v>
+        <v>5478</v>
       </c>
       <c r="E25">
-        <v>60661</v>
+        <v>45908</v>
       </c>
       <c r="F25">
-        <v>5437</v>
+        <v>3892</v>
       </c>
       <c r="G25">
-        <v>135489</v>
+        <v>90342</v>
       </c>
       <c r="H25">
-        <v>153377</v>
+        <v>120931</v>
       </c>
       <c r="I25">
-        <v>64872</v>
+        <v>30866</v>
       </c>
       <c r="J25">
-        <v>44894</v>
+        <v>39407</v>
       </c>
       <c r="K25">
-        <v>3003</v>
+        <v>15220</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>70531</v>
+        <v>53035</v>
       </c>
       <c r="O25">
-        <v>132360</v>
+        <v>110175</v>
       </c>
       <c r="P25">
-        <v>47897</v>
+        <v>54627</v>
       </c>
       <c r="Q25">
-        <v>-7247</v>
+        <v>1358</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>21017</v>
+        <v>10756</v>
       </c>
       <c r="U25">
-        <v>26277</v>
+        <v>7978</v>
       </c>
       <c r="V25">
-        <v>1751</v>
+        <v>2292</v>
       </c>
       <c r="W25">
-        <v>-291</v>
+        <v>-181</v>
       </c>
       <c r="X25">
-        <v>-6984</v>
+        <v>1982</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="AA25">
-        <v>1142</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>825</v>
+        <v>922</v>
       </c>
       <c r="D26">
-        <v>7200</v>
+        <v>5777</v>
       </c>
       <c r="E26">
-        <v>65461</v>
+        <v>43116</v>
       </c>
       <c r="F26">
-        <v>5150</v>
+        <v>4045</v>
       </c>
       <c r="G26">
-        <v>142279</v>
+        <v>102493</v>
       </c>
       <c r="H26">
-        <v>158893</v>
+        <v>128329</v>
       </c>
       <c r="I26">
-        <v>64232</v>
+        <v>20686</v>
       </c>
       <c r="J26">
-        <v>46966</v>
+        <v>42655</v>
       </c>
       <c r="K26">
-        <v>7836</v>
+        <v>15236</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>78317</v>
+        <v>43137</v>
       </c>
       <c r="O26">
-        <v>138392</v>
+        <v>117818</v>
       </c>
       <c r="P26">
-        <v>54826</v>
+        <v>57983</v>
       </c>
       <c r="Q26">
-        <v>-1312</v>
+        <v>-388</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>56400</v>
+        <v>65400</v>
       </c>
       <c r="T26">
-        <v>20501</v>
+        <v>10511</v>
       </c>
       <c r="U26">
-        <v>25093</v>
+        <v>5306</v>
       </c>
       <c r="V26">
-        <v>3340</v>
+        <v>2256</v>
       </c>
       <c r="W26">
-        <v>-315</v>
+        <v>-181</v>
       </c>
       <c r="X26">
-        <v>3719</v>
+        <v>4252</v>
       </c>
       <c r="Y26">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="Z26">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="AA26">
-        <v>825</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1251</v>
+        <v>1057</v>
       </c>
       <c r="D27">
-        <v>8136</v>
+        <v>5625</v>
       </c>
       <c r="E27">
-        <v>63955</v>
+        <v>49227</v>
       </c>
       <c r="F27">
-        <v>5758</v>
+        <v>4163</v>
       </c>
       <c r="G27">
-        <v>143448</v>
+        <v>94719</v>
       </c>
       <c r="H27">
-        <v>161385</v>
+        <v>126361</v>
       </c>
       <c r="I27">
-        <v>65490</v>
+        <v>31708</v>
       </c>
       <c r="J27">
-        <v>51647</v>
+        <v>43729</v>
       </c>
       <c r="K27">
-        <v>3918</v>
+        <v>15029</v>
       </c>
       <c r="L27">
-        <v>-1941</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-3801</v>
+        <v>-4504</v>
       </c>
       <c r="N27">
-        <v>72114</v>
+        <v>53542</v>
       </c>
       <c r="O27">
-        <v>140450</v>
+        <v>115866</v>
       </c>
       <c r="P27">
-        <v>55565</v>
+        <v>58758</v>
       </c>
       <c r="Q27">
-        <v>4183</v>
+        <v>98</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>20935</v>
+        <v>10495</v>
       </c>
       <c r="U27">
-        <v>29292</v>
+        <v>7979</v>
       </c>
       <c r="V27">
-        <v>1160</v>
+        <v>2347</v>
       </c>
       <c r="W27">
-        <v>-313</v>
+        <v>-180</v>
       </c>
       <c r="X27">
-        <v>2205</v>
+        <v>-2627</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-434</v>
+        <v>-77</v>
       </c>
       <c r="AA27">
-        <v>1251</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1344</v>
+        <v>1057</v>
       </c>
       <c r="D28">
-        <v>8545</v>
+        <v>5968</v>
       </c>
       <c r="E28">
-        <v>66506</v>
+        <v>55447</v>
       </c>
       <c r="F28">
-        <v>6008</v>
+        <v>4516</v>
       </c>
       <c r="G28">
-        <v>148883</v>
+        <v>102319</v>
       </c>
       <c r="H28">
-        <v>166997</v>
+        <v>134372</v>
       </c>
       <c r="I28">
-        <v>69832</v>
+        <v>32272</v>
       </c>
       <c r="J28">
-        <v>51945</v>
+        <v>49873</v>
       </c>
       <c r="K28">
-        <v>3787</v>
+        <v>15802</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>76122</v>
+        <v>55214</v>
       </c>
       <c r="O28">
-        <v>145822</v>
+        <v>123737</v>
       </c>
       <c r="P28">
-        <v>55732</v>
+        <v>65675</v>
       </c>
       <c r="Q28">
-        <v>1085</v>
+        <v>-499</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>21175</v>
+        <v>10635</v>
       </c>
       <c r="U28">
-        <v>30340</v>
+        <v>7371</v>
       </c>
       <c r="V28">
-        <v>3124</v>
+        <v>2954</v>
       </c>
       <c r="W28">
-        <v>-307</v>
+        <v>-179</v>
       </c>
       <c r="X28">
-        <v>2769</v>
+        <v>6040</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>169</v>
+        <v>-283</v>
       </c>
       <c r="AA28">
-        <v>1344</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1359</v>
+        <v>1067</v>
       </c>
       <c r="D29">
-        <v>8528</v>
+        <v>6051</v>
       </c>
       <c r="E29">
-        <v>68644</v>
+        <v>49905</v>
       </c>
       <c r="F29">
-        <v>6009</v>
+        <v>3867</v>
       </c>
       <c r="G29">
-        <v>150457</v>
+        <v>115173</v>
       </c>
       <c r="H29">
-        <v>168577</v>
+        <v>140927</v>
       </c>
       <c r="I29">
-        <v>73530</v>
+        <v>19344</v>
       </c>
       <c r="J29">
-        <v>48762</v>
+        <v>54060</v>
       </c>
       <c r="K29">
-        <v>2579</v>
+        <v>15442</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>78475</v>
+        <v>41766</v>
       </c>
       <c r="O29">
-        <v>147492</v>
+        <v>130029</v>
       </c>
       <c r="P29">
-        <v>51341</v>
+        <v>69502</v>
       </c>
       <c r="Q29">
-        <v>-2507</v>
+        <v>3779</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>21085</v>
+        <v>10898</v>
       </c>
       <c r="U29">
-        <v>26082</v>
+        <v>8410</v>
       </c>
       <c r="V29">
-        <v>4297</v>
+        <v>2661</v>
       </c>
       <c r="W29">
-        <v>-305</v>
+        <v>-177</v>
       </c>
       <c r="X29">
-        <v>-2391</v>
+        <v>2903</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="AA29">
-        <v>1359</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1206</v>
+        <v>831</v>
       </c>
       <c r="D30">
-        <v>8663</v>
+        <v>5812</v>
       </c>
       <c r="E30">
-        <v>74300</v>
+        <v>53339</v>
       </c>
       <c r="F30">
-        <v>6018</v>
+        <v>5655</v>
       </c>
       <c r="G30">
-        <v>165106</v>
+        <v>127630</v>
       </c>
       <c r="H30">
-        <v>181196</v>
+        <v>149743</v>
       </c>
       <c r="I30">
-        <v>79109</v>
+        <v>23137</v>
       </c>
       <c r="J30">
-        <v>55781</v>
+        <v>55195</v>
       </c>
       <c r="K30">
-        <v>6115</v>
+        <v>17761</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>93323</v>
+        <v>48095</v>
       </c>
       <c r="O30">
-        <v>162935</v>
+        <v>138714</v>
       </c>
       <c r="P30">
-        <v>61919</v>
+        <v>73046</v>
       </c>
       <c r="Q30">
-        <v>5008</v>
+        <v>3644</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>55000</v>
+        <v>67700</v>
       </c>
       <c r="T30">
-        <v>18261</v>
+        <v>11029</v>
       </c>
       <c r="U30">
-        <v>32879</v>
+        <v>8878</v>
       </c>
       <c r="V30">
-        <v>4959</v>
+        <v>529</v>
       </c>
       <c r="W30">
-        <v>-326</v>
+        <v>-176</v>
       </c>
       <c r="X30">
-        <v>9662</v>
+        <v>9150</v>
       </c>
       <c r="Y30">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="Z30">
-        <v>24</v>
+        <v>-461</v>
       </c>
       <c r="AA30">
-        <v>-1206</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1634</v>
+        <v>991</v>
       </c>
       <c r="D31">
-        <v>8943</v>
+        <v>6029</v>
       </c>
       <c r="E31">
-        <v>73906</v>
+        <v>48454</v>
       </c>
       <c r="F31">
-        <v>6187</v>
+        <v>4867</v>
       </c>
       <c r="G31">
-        <v>162081</v>
+        <v>110022</v>
       </c>
       <c r="H31">
-        <v>179956</v>
+        <v>135288</v>
       </c>
       <c r="I31">
-        <v>80703</v>
+        <v>23066</v>
       </c>
       <c r="J31">
-        <v>52461</v>
+        <v>55534</v>
       </c>
       <c r="K31">
-        <v>2052</v>
+        <v>18994</v>
       </c>
       <c r="L31">
-        <v>-1489</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-7203</v>
+        <v>-3377</v>
       </c>
       <c r="N31">
-        <v>85190</v>
+        <v>48914</v>
       </c>
       <c r="O31">
-        <v>160343</v>
+        <v>123777</v>
       </c>
       <c r="P31">
-        <v>54513</v>
+        <v>74528</v>
       </c>
       <c r="Q31">
-        <v>-1757</v>
+        <v>4184</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>19613</v>
+        <v>11511</v>
       </c>
       <c r="U31">
-        <v>31043</v>
+        <v>19489</v>
       </c>
       <c r="V31">
-        <v>2063</v>
+        <v>4535</v>
       </c>
       <c r="W31">
-        <v>-324</v>
+        <v>-210</v>
       </c>
       <c r="X31">
-        <v>-2949</v>
+        <v>-2329</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-329</v>
+        <v>-167</v>
       </c>
       <c r="AA31">
-        <v>1634</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1623</v>
+        <v>653</v>
       </c>
       <c r="D32">
-        <v>9196</v>
+        <v>5631</v>
       </c>
       <c r="E32">
-        <v>76687</v>
+        <v>47829</v>
       </c>
       <c r="F32">
-        <v>6347</v>
+        <v>4370</v>
       </c>
       <c r="G32">
-        <v>165738</v>
+        <v>111272</v>
       </c>
       <c r="H32">
-        <v>184861</v>
+        <v>137330</v>
       </c>
       <c r="I32">
-        <v>81191</v>
+        <v>24551</v>
       </c>
       <c r="J32">
-        <v>55883</v>
+        <v>57035</v>
       </c>
       <c r="K32">
-        <v>2015</v>
+        <v>17519</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>85428</v>
+        <v>48985</v>
       </c>
       <c r="O32">
-        <v>163969</v>
+        <v>125061</v>
       </c>
       <c r="P32">
-        <v>57898</v>
+        <v>74554</v>
       </c>
       <c r="Q32">
-        <v>-244</v>
+        <v>639</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>20892</v>
+        <v>12269</v>
       </c>
       <c r="U32">
-        <v>29688</v>
+        <v>20091</v>
       </c>
       <c r="V32">
-        <v>3033</v>
+        <v>3432</v>
       </c>
       <c r="W32">
-        <v>-321</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>4184</v>
+        <v>182</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-1497</v>
+        <v>-419</v>
       </c>
       <c r="AA32">
-        <v>1623</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1654</v>
+        <v>815</v>
       </c>
       <c r="D33">
-        <v>9327</v>
+        <v>5805</v>
       </c>
       <c r="E33">
-        <v>79097</v>
+        <v>44071</v>
       </c>
       <c r="F33">
-        <v>6470</v>
+        <v>4525</v>
       </c>
       <c r="G33">
-        <v>168675</v>
+        <v>101004</v>
       </c>
       <c r="H33">
-        <v>189092</v>
+        <v>127218</v>
       </c>
       <c r="I33">
-        <v>84906</v>
+        <v>21505</v>
       </c>
       <c r="J33">
-        <v>55300</v>
+        <v>57797</v>
       </c>
       <c r="K33">
-        <v>2392</v>
+        <v>13902</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>89368</v>
+        <v>41908</v>
       </c>
       <c r="O33">
-        <v>167632</v>
+        <v>114699</v>
       </c>
       <c r="P33">
-        <v>57692</v>
+        <v>71699</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-4193</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>21460</v>
+        <v>12519</v>
       </c>
       <c r="U33">
-        <v>30176</v>
+        <v>15556</v>
       </c>
       <c r="V33">
-        <v>5086</v>
+        <v>776</v>
       </c>
       <c r="W33">
-        <v>-325</v>
+        <v>-209</v>
       </c>
       <c r="X33">
-        <v>626</v>
+        <v>-8418</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-1501</v>
+        <v>-24</v>
       </c>
       <c r="AA33">
-        <v>1654</v>
+        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>2010</v>
+        <v>240</v>
       </c>
       <c r="D34">
-        <v>9520</v>
+        <v>5102</v>
       </c>
       <c r="E34">
-        <v>83396</v>
+        <v>40659</v>
       </c>
       <c r="F34">
-        <v>6509</v>
+        <v>3874</v>
       </c>
       <c r="G34">
-        <v>166920</v>
+        <v>102493</v>
       </c>
       <c r="H34">
-        <v>188602</v>
+        <v>126074</v>
       </c>
       <c r="I34">
-        <v>82215</v>
+        <v>23914</v>
       </c>
       <c r="J34">
-        <v>58404</v>
+        <v>59952</v>
       </c>
       <c r="K34">
-        <v>3146</v>
+        <v>9476</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>89637</v>
+        <v>41849</v>
       </c>
       <c r="O34">
-        <v>166312</v>
+        <v>114233</v>
       </c>
       <c r="P34">
-        <v>61569</v>
+        <v>69517</v>
       </c>
       <c r="Q34">
-        <v>-3454</v>
+        <v>4652</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>59000</v>
+        <v>66000</v>
       </c>
       <c r="T34">
-        <v>22290</v>
+        <v>11841</v>
       </c>
       <c r="U34">
-        <v>27381</v>
+        <v>20547</v>
       </c>
       <c r="V34">
-        <v>-1252</v>
+        <v>-602</v>
       </c>
       <c r="W34">
-        <v>-354</v>
+        <v>-209</v>
       </c>
       <c r="X34">
-        <v>3240</v>
+        <v>125</v>
       </c>
       <c r="Y34">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="Z34">
-        <v>1396</v>
+        <v>163</v>
       </c>
       <c r="AA34">
-        <v>2010</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1550</v>
+        <v>437</v>
       </c>
       <c r="D35">
-        <v>9555</v>
+        <v>4124</v>
       </c>
       <c r="E35">
-        <v>82839</v>
+        <v>34317</v>
       </c>
       <c r="F35">
-        <v>6554</v>
+        <v>3167</v>
       </c>
       <c r="G35">
-        <v>175929</v>
+        <v>87663</v>
       </c>
       <c r="H35">
-        <v>197193</v>
+        <v>121183</v>
       </c>
       <c r="I35">
-        <v>89019</v>
+        <v>26171</v>
       </c>
       <c r="J35">
-        <v>58418</v>
+        <v>57620</v>
       </c>
       <c r="K35">
-        <v>2250</v>
+        <v>3350</v>
       </c>
       <c r="L35">
-        <v>-1099</v>
+        <v>-6041</v>
       </c>
       <c r="M35">
-        <v>-3821</v>
+        <v>-2271</v>
       </c>
       <c r="N35">
-        <v>93492</v>
+        <v>35438</v>
       </c>
       <c r="O35">
-        <v>174975</v>
+        <v>105403</v>
       </c>
       <c r="P35">
-        <v>60668</v>
+        <v>60970</v>
       </c>
       <c r="Q35">
-        <v>5823</v>
+        <v>260</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>22218</v>
+        <v>15780</v>
       </c>
       <c r="U35">
-        <v>32869</v>
+        <v>20797</v>
       </c>
       <c r="V35">
-        <v>8547</v>
+        <v>994</v>
       </c>
       <c r="W35">
-        <v>-355</v>
+        <v>-226</v>
       </c>
       <c r="X35">
-        <v>-83</v>
+        <v>-2505</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-1833</v>
+        <v>-5144</v>
       </c>
       <c r="AA35">
-        <v>1550</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1761</v>
+        <v>337</v>
       </c>
       <c r="D36">
-        <v>9977</v>
+        <v>4508</v>
       </c>
       <c r="E36">
-        <v>85121</v>
+        <v>29787</v>
       </c>
       <c r="F36">
-        <v>6762</v>
+        <v>3348</v>
       </c>
       <c r="G36">
-        <v>173854</v>
+        <v>80062</v>
       </c>
       <c r="H36">
-        <v>197603</v>
+        <v>117035</v>
       </c>
       <c r="I36">
-        <v>89108</v>
+        <v>28414</v>
       </c>
       <c r="J36">
-        <v>57736</v>
+        <v>53516</v>
       </c>
       <c r="K36">
-        <v>2895</v>
+        <v>2198</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>94017</v>
+        <v>36580</v>
       </c>
       <c r="O36">
-        <v>174511</v>
+        <v>103615</v>
       </c>
       <c r="P36">
-        <v>60631</v>
+        <v>55714</v>
       </c>
       <c r="Q36">
-        <v>-6299</v>
+        <v>-5466</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>23092</v>
+        <v>13420</v>
       </c>
       <c r="U36">
-        <v>26807</v>
+        <v>15615</v>
       </c>
       <c r="V36">
-        <v>2930</v>
+        <v>1607</v>
       </c>
       <c r="W36">
-        <v>-347</v>
+        <v>-268</v>
       </c>
       <c r="X36">
-        <v>-1461</v>
+        <v>-6132</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2051</v>
+        <v>-1611</v>
       </c>
       <c r="AA36">
-        <v>1761</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1755</v>
+        <v>640</v>
       </c>
       <c r="D37">
-        <v>10110</v>
+        <v>4838</v>
       </c>
       <c r="E37">
-        <v>85763</v>
+        <v>28627</v>
       </c>
       <c r="F37">
-        <v>6938</v>
+        <v>3723</v>
       </c>
       <c r="G37">
-        <v>170183</v>
+        <v>83912</v>
       </c>
       <c r="H37">
-        <v>194184</v>
+        <v>120445</v>
       </c>
       <c r="I37">
-        <v>86164</v>
+        <v>32643</v>
       </c>
       <c r="J37">
-        <v>58474</v>
+        <v>53277</v>
       </c>
       <c r="K37">
-        <v>2878</v>
+        <v>2202</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>90906</v>
+        <v>40591</v>
       </c>
       <c r="O37">
-        <v>171159</v>
+        <v>106502</v>
       </c>
       <c r="P37">
-        <v>61352</v>
+        <v>55479</v>
       </c>
       <c r="Q37">
-        <v>-1978</v>
+        <v>3242</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>23025</v>
+        <v>13943</v>
       </c>
       <c r="U37">
-        <v>24235</v>
+        <v>18648</v>
       </c>
       <c r="V37">
-        <v>-1041</v>
+        <v>2311</v>
       </c>
       <c r="W37">
-        <v>-346</v>
+        <v>-215</v>
       </c>
       <c r="X37">
-        <v>-398</v>
+        <v>2041</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>39</v>
+        <v>-350</v>
       </c>
       <c r="AA37">
-        <v>1755</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1693</v>
+        <v>716</v>
       </c>
       <c r="D38">
-        <v>10341</v>
+        <v>5742</v>
       </c>
       <c r="E38">
-        <v>89624</v>
+        <v>30010</v>
       </c>
       <c r="F38">
-        <v>7067</v>
+        <v>4421</v>
       </c>
       <c r="G38">
-        <v>170932</v>
+        <v>90638</v>
       </c>
       <c r="H38">
-        <v>198321</v>
+        <v>125145</v>
       </c>
       <c r="I38">
-        <v>86025</v>
+        <v>35352</v>
       </c>
       <c r="J38">
-        <v>57810</v>
+        <v>52251</v>
       </c>
       <c r="K38">
-        <v>6783</v>
+        <v>3766</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>97509</v>
+        <v>48279</v>
       </c>
       <c r="O38">
-        <v>175250</v>
+        <v>110739</v>
       </c>
       <c r="P38">
-        <v>64618</v>
+        <v>56104</v>
       </c>
       <c r="Q38">
-        <v>-908</v>
+        <v>-3091</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>64000</v>
+        <v>58300</v>
       </c>
       <c r="T38">
-        <v>23071</v>
+        <v>14406</v>
       </c>
       <c r="U38">
-        <v>23845</v>
+        <v>16387</v>
       </c>
       <c r="V38">
-        <v>3196</v>
+        <v>1425</v>
       </c>
       <c r="W38">
-        <v>-374</v>
+        <v>-215</v>
       </c>
       <c r="X38">
-        <v>1423</v>
+        <v>1949</v>
       </c>
       <c r="Y38">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="Z38">
-        <v>30</v>
+        <v>-784</v>
       </c>
       <c r="AA38">
-        <v>1693</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>367</v>
+        <v>885</v>
       </c>
       <c r="D39">
-        <v>7689</v>
+        <v>5617</v>
       </c>
       <c r="E39">
-        <v>77418</v>
+        <v>52721</v>
       </c>
       <c r="F39">
-        <v>4841</v>
+        <v>4249</v>
       </c>
       <c r="G39">
-        <v>161606</v>
+        <v>111318</v>
       </c>
       <c r="H39">
-        <v>186060</v>
+        <v>143314</v>
       </c>
       <c r="I39">
-        <v>85939</v>
+        <v>37315</v>
       </c>
       <c r="J39">
-        <v>52588</v>
+        <v>72293</v>
       </c>
       <c r="K39">
-        <v>3650</v>
+        <v>1931</v>
       </c>
       <c r="L39">
-        <v>-2880</v>
+        <v>-379</v>
       </c>
       <c r="M39">
-        <v>-5849</v>
+        <v>-5127</v>
       </c>
       <c r="N39">
-        <v>89589</v>
+        <v>44775</v>
       </c>
       <c r="O39">
-        <v>165054</v>
+        <v>129889</v>
       </c>
       <c r="P39">
-        <v>56238</v>
+        <v>74224</v>
       </c>
       <c r="Q39">
-        <v>14162</v>
+        <v>6309</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>21006</v>
+        <v>13425</v>
       </c>
       <c r="U39">
-        <v>35865</v>
+        <v>20807</v>
       </c>
       <c r="V39">
-        <v>-2219</v>
+        <v>2262</v>
       </c>
       <c r="W39">
-        <v>-383</v>
+        <v>-216</v>
       </c>
       <c r="X39">
-        <v>-5418</v>
+        <v>-3661</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>3379</v>
+        <v>2344</v>
       </c>
       <c r="AA39">
-        <v>367</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>257</v>
+        <v>1017</v>
       </c>
       <c r="D40">
-        <v>6120</v>
+        <v>6153</v>
       </c>
       <c r="E40">
-        <v>68560</v>
+        <v>52815</v>
       </c>
       <c r="F40">
-        <v>4563</v>
+        <v>4834</v>
       </c>
       <c r="G40">
-        <v>147926</v>
+        <v>113203</v>
       </c>
       <c r="H40">
-        <v>188608</v>
+        <v>143763</v>
       </c>
       <c r="I40">
-        <v>92536</v>
+        <v>37855</v>
       </c>
       <c r="J40">
-        <v>48797</v>
+        <v>69585</v>
       </c>
       <c r="K40">
-        <v>1750</v>
+        <v>2609</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>94286</v>
+        <v>45875</v>
       </c>
       <c r="O40">
-        <v>167546</v>
+        <v>129250</v>
       </c>
       <c r="P40">
-        <v>50547</v>
+        <v>72194</v>
       </c>
       <c r="Q40">
-        <v>3495</v>
+        <v>-2221</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>21062</v>
+        <v>14513</v>
       </c>
       <c r="U40">
-        <v>41248</v>
+        <v>20366</v>
       </c>
       <c r="V40">
-        <v>2130</v>
+        <v>2188</v>
       </c>
       <c r="W40">
-        <v>-366</v>
+        <v>-217</v>
       </c>
       <c r="X40">
-        <v>638</v>
+        <v>-2176</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-14902</v>
+        <v>1023</v>
       </c>
       <c r="AA40">
-        <v>257</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="D41">
-        <v>8086</v>
+        <v>6600</v>
       </c>
       <c r="E41">
-        <v>67062</v>
+        <v>53282</v>
       </c>
       <c r="F41">
-        <v>5823</v>
+        <v>5196</v>
       </c>
       <c r="G41">
-        <v>143287</v>
+        <v>115443</v>
       </c>
       <c r="H41">
-        <v>187259</v>
+        <v>146056</v>
       </c>
       <c r="I41">
-        <v>93693</v>
+        <v>38875</v>
       </c>
       <c r="J41">
-        <v>44777</v>
+        <v>68828</v>
       </c>
       <c r="K41">
-        <v>1857</v>
+        <v>2500</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>95550</v>
+        <v>46785</v>
       </c>
       <c r="O41">
-        <v>165390</v>
+        <v>130136</v>
       </c>
       <c r="P41">
-        <v>46634</v>
+        <v>71328</v>
       </c>
       <c r="Q41">
-        <v>-6476</v>
+        <v>654</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>21869</v>
+        <v>15920</v>
       </c>
       <c r="U41">
-        <v>32726</v>
+        <v>20981</v>
       </c>
       <c r="V41">
-        <v>2180</v>
+        <v>2777</v>
       </c>
       <c r="W41">
-        <v>-363</v>
+        <v>-217</v>
       </c>
       <c r="X41">
-        <v>-3602</v>
+        <v>-2048</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-2515</v>
+        <v>336</v>
       </c>
       <c r="AA41">
-        <v>1073</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1062</v>
+      </c>
+      <c r="D42">
+        <v>7005</v>
+      </c>
+      <c r="E42">
+        <v>57616</v>
+      </c>
+      <c r="F42">
+        <v>5505</v>
+      </c>
+      <c r="G42">
+        <v>121451</v>
+      </c>
+      <c r="H42">
+        <v>146689</v>
+      </c>
+      <c r="I42">
+        <v>39418</v>
+      </c>
+      <c r="J42">
+        <v>66284</v>
+      </c>
+      <c r="K42">
+        <v>4599</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>53216</v>
+      </c>
+      <c r="O42">
+        <v>130459</v>
+      </c>
+      <c r="P42">
+        <v>71015</v>
+      </c>
+      <c r="Q42">
+        <v>-4985</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>61000</v>
+      </c>
+      <c r="T42">
+        <v>16230</v>
+      </c>
+      <c r="U42">
+        <v>15984</v>
+      </c>
+      <c r="V42">
+        <v>1708</v>
+      </c>
+      <c r="W42">
+        <v>-217</v>
+      </c>
+      <c r="X42">
+        <v>-199</v>
+      </c>
+      <c r="Y42">
+        <v>132</v>
+      </c>
+      <c r="Z42">
+        <v>2755</v>
+      </c>
+      <c r="AA42">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1177</v>
+      </c>
+      <c r="D43">
+        <v>6934</v>
+      </c>
+      <c r="E43">
+        <v>55232</v>
+      </c>
+      <c r="F43">
+        <v>5193</v>
+      </c>
+      <c r="G43">
+        <v>119305</v>
+      </c>
+      <c r="H43">
+        <v>143979</v>
+      </c>
+      <c r="I43">
+        <v>41874</v>
+      </c>
+      <c r="J43">
+        <v>60730</v>
+      </c>
+      <c r="K43">
+        <v>3655</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-5731</v>
+      </c>
+      <c r="N43">
+        <v>50803</v>
+      </c>
+      <c r="O43">
+        <v>126497</v>
+      </c>
+      <c r="P43">
+        <v>64385</v>
+      </c>
+      <c r="Q43">
+        <v>5671</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>17482</v>
+      </c>
+      <c r="U43">
+        <v>21593</v>
+      </c>
+      <c r="V43">
+        <v>537</v>
+      </c>
+      <c r="W43">
+        <v>-217</v>
+      </c>
+      <c r="X43">
+        <v>-3616</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>3521</v>
+      </c>
+      <c r="AA43">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7261</v>
+      </c>
+      <c r="E44">
+        <v>56566</v>
+      </c>
+      <c r="F44">
+        <v>5475</v>
+      </c>
+      <c r="G44">
+        <v>124406</v>
+      </c>
+      <c r="H44">
+        <v>147796</v>
+      </c>
+      <c r="I44">
+        <v>43222</v>
+      </c>
+      <c r="J44">
+        <v>61395</v>
+      </c>
+      <c r="K44">
+        <v>3906</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>52361</v>
+      </c>
+      <c r="O44">
+        <v>129591</v>
+      </c>
+      <c r="P44">
+        <v>65301</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>18205</v>
+      </c>
+      <c r="U44">
+        <v>22604</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1235</v>
+      </c>
+      <c r="D45">
+        <v>7322</v>
+      </c>
+      <c r="E45">
+        <v>56427</v>
+      </c>
+      <c r="F45">
+        <v>5568</v>
+      </c>
+      <c r="G45">
+        <v>126173</v>
+      </c>
+      <c r="H45">
+        <v>148693</v>
+      </c>
+      <c r="I45">
+        <v>43727</v>
+      </c>
+      <c r="J45">
+        <v>61767</v>
+      </c>
+      <c r="K45">
+        <v>3870</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>52652</v>
+      </c>
+      <c r="O45">
+        <v>130593</v>
+      </c>
+      <c r="P45">
+        <v>65637</v>
+      </c>
+      <c r="Q45">
+        <v>1863</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>18100</v>
+      </c>
+      <c r="U45">
+        <v>24512</v>
+      </c>
+      <c r="V45">
+        <v>2398</v>
+      </c>
+      <c r="W45">
+        <v>-213</v>
+      </c>
+      <c r="X45">
+        <v>162</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>14</v>
+      </c>
+      <c r="AA45">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1192</v>
+      </c>
+      <c r="D46">
+        <v>7333</v>
+      </c>
+      <c r="E46">
+        <v>61166</v>
+      </c>
+      <c r="F46">
+        <v>5680</v>
+      </c>
+      <c r="G46">
+        <v>134045</v>
+      </c>
+      <c r="H46">
+        <v>153337</v>
+      </c>
+      <c r="I46">
+        <v>48356</v>
+      </c>
+      <c r="J46">
+        <v>59447</v>
+      </c>
+      <c r="K46">
+        <v>6515</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>64052</v>
+      </c>
+      <c r="O46">
+        <v>134543</v>
+      </c>
+      <c r="P46">
+        <v>66085</v>
+      </c>
+      <c r="Q46">
+        <v>-52</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>62500</v>
+      </c>
+      <c r="T46">
+        <v>18794</v>
+      </c>
+      <c r="U46">
+        <v>24423</v>
+      </c>
+      <c r="V46">
+        <v>3394</v>
+      </c>
+      <c r="W46">
+        <v>-215</v>
+      </c>
+      <c r="X46">
+        <v>2021</v>
+      </c>
+      <c r="Y46">
+        <v>123</v>
+      </c>
+      <c r="Z46">
+        <v>1338</v>
+      </c>
+      <c r="AA46">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1256</v>
+      </c>
+      <c r="D47">
+        <v>7175</v>
+      </c>
+      <c r="E47">
+        <v>58882</v>
+      </c>
+      <c r="F47">
+        <v>5514</v>
+      </c>
+      <c r="G47">
+        <v>131214</v>
+      </c>
+      <c r="H47">
+        <v>151784</v>
+      </c>
+      <c r="I47">
+        <v>49596</v>
+      </c>
+      <c r="J47">
+        <v>56844</v>
+      </c>
+      <c r="K47">
+        <v>3758</v>
+      </c>
+      <c r="L47">
+        <v>-540</v>
+      </c>
+      <c r="M47">
+        <v>-4501</v>
+      </c>
+      <c r="N47">
+        <v>58082</v>
+      </c>
+      <c r="O47">
+        <v>131877</v>
+      </c>
+      <c r="P47">
+        <v>60602</v>
+      </c>
+      <c r="Q47">
+        <v>2189</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>19907</v>
+      </c>
+      <c r="U47">
+        <v>26526</v>
+      </c>
+      <c r="V47">
+        <v>3432</v>
+      </c>
+      <c r="W47">
+        <v>-211</v>
+      </c>
+      <c r="X47">
+        <v>-3316</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>568</v>
+      </c>
+      <c r="AA47">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1339</v>
+      </c>
+      <c r="D48">
+        <v>7504</v>
+      </c>
+      <c r="E48">
+        <v>59910</v>
+      </c>
+      <c r="F48">
+        <v>5862</v>
+      </c>
+      <c r="G48">
+        <v>127810</v>
+      </c>
+      <c r="H48">
+        <v>148128</v>
+      </c>
+      <c r="I48">
+        <v>47729</v>
+      </c>
+      <c r="J48">
+        <v>55953</v>
+      </c>
+      <c r="K48">
+        <v>3553</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>55789</v>
+      </c>
+      <c r="O48">
+        <v>128861</v>
+      </c>
+      <c r="P48">
+        <v>59506</v>
+      </c>
+      <c r="Q48">
+        <v>-5010</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>19267</v>
+      </c>
+      <c r="U48">
+        <v>22007</v>
+      </c>
+      <c r="V48">
+        <v>3310</v>
+      </c>
+      <c r="W48">
+        <v>-235</v>
+      </c>
+      <c r="X48">
+        <v>-4470</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>314</v>
+      </c>
+      <c r="AA48">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1250</v>
+      </c>
+      <c r="D49">
+        <v>7383</v>
+      </c>
+      <c r="E49">
+        <v>60791</v>
+      </c>
+      <c r="F49">
+        <v>5686</v>
+      </c>
+      <c r="G49">
+        <v>132803</v>
+      </c>
+      <c r="H49">
+        <v>152873</v>
+      </c>
+      <c r="I49">
+        <v>50288</v>
+      </c>
+      <c r="J49">
+        <v>56271</v>
+      </c>
+      <c r="K49">
+        <v>4027</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>58769</v>
+      </c>
+      <c r="O49">
+        <v>133395</v>
+      </c>
+      <c r="P49">
+        <v>60298</v>
+      </c>
+      <c r="Q49">
+        <v>3071</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>19478</v>
+      </c>
+      <c r="U49">
+        <v>25075</v>
+      </c>
+      <c r="V49">
+        <v>3872</v>
+      </c>
+      <c r="W49">
+        <v>-229</v>
+      </c>
+      <c r="X49">
+        <v>303</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>319</v>
+      </c>
+      <c r="AA49">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>637</v>
+      </c>
+      <c r="D50">
+        <v>7503</v>
+      </c>
+      <c r="E50">
+        <v>64309</v>
+      </c>
+      <c r="F50">
+        <v>5449</v>
+      </c>
+      <c r="G50">
+        <v>135594</v>
+      </c>
+      <c r="H50">
+        <v>153140</v>
+      </c>
+      <c r="I50">
+        <v>49809</v>
+      </c>
+      <c r="J50">
+        <v>58855</v>
+      </c>
+      <c r="K50">
+        <v>3846</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>62559</v>
+      </c>
+      <c r="O50">
+        <v>134254</v>
+      </c>
+      <c r="P50">
+        <v>62819</v>
+      </c>
+      <c r="Q50">
+        <v>-2893</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>63500</v>
+      </c>
+      <c r="T50">
+        <v>18886</v>
+      </c>
+      <c r="U50">
+        <v>22192</v>
+      </c>
+      <c r="V50">
+        <v>-3532</v>
+      </c>
+      <c r="W50">
+        <v>-227</v>
+      </c>
+      <c r="X50">
+        <v>4215</v>
+      </c>
+      <c r="Y50">
+        <v>118</v>
+      </c>
+      <c r="Z50">
+        <v>413</v>
+      </c>
+      <c r="AA50">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1280</v>
+      </c>
+      <c r="D51">
+        <v>7465</v>
+      </c>
+      <c r="E51">
+        <v>61460</v>
+      </c>
+      <c r="F51">
+        <v>5756</v>
+      </c>
+      <c r="G51">
+        <v>137034</v>
+      </c>
+      <c r="H51">
+        <v>156855</v>
+      </c>
+      <c r="I51">
+        <v>55531</v>
+      </c>
+      <c r="J51">
+        <v>56366</v>
+      </c>
+      <c r="K51">
+        <v>3359</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-3001</v>
+      </c>
+      <c r="N51">
+        <v>63122</v>
+      </c>
+      <c r="O51">
+        <v>137565</v>
+      </c>
+      <c r="P51">
+        <v>59725</v>
+      </c>
+      <c r="Q51">
+        <v>5714</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>19290</v>
+      </c>
+      <c r="U51">
+        <v>27846</v>
+      </c>
+      <c r="V51">
+        <v>7547</v>
+      </c>
+      <c r="W51">
+        <v>-222</v>
+      </c>
+      <c r="X51">
+        <v>-1830</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-205</v>
+      </c>
+      <c r="AA51">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1405</v>
+      </c>
+      <c r="D52">
+        <v>7723</v>
+      </c>
+      <c r="E52">
+        <v>62264</v>
+      </c>
+      <c r="F52">
+        <v>5929</v>
+      </c>
+      <c r="G52">
+        <v>132958</v>
+      </c>
+      <c r="H52">
+        <v>151933</v>
+      </c>
+      <c r="I52">
+        <v>54828</v>
+      </c>
+      <c r="J52">
+        <v>52675</v>
+      </c>
+      <c r="K52">
+        <v>2961</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>61914</v>
+      </c>
+      <c r="O52">
+        <v>132899</v>
+      </c>
+      <c r="P52">
+        <v>55636</v>
+      </c>
+      <c r="Q52">
+        <v>-4835</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>19034</v>
+      </c>
+      <c r="U52">
+        <v>22952</v>
+      </c>
+      <c r="V52">
+        <v>2682</v>
+      </c>
+      <c r="W52">
+        <v>-221</v>
+      </c>
+      <c r="X52">
+        <v>-5444</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>331</v>
+      </c>
+      <c r="AA52">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1366</v>
+      </c>
+      <c r="D53">
+        <v>7877</v>
+      </c>
+      <c r="E53">
+        <v>62215</v>
+      </c>
+      <c r="F53">
+        <v>6061</v>
+      </c>
+      <c r="G53">
+        <v>131415</v>
+      </c>
+      <c r="H53">
+        <v>150103</v>
+      </c>
+      <c r="I53">
+        <v>53848</v>
+      </c>
+      <c r="J53">
+        <v>52529</v>
+      </c>
+      <c r="K53">
+        <v>3481</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>61417</v>
+      </c>
+      <c r="O53">
+        <v>130887</v>
+      </c>
+      <c r="P53">
+        <v>56010</v>
+      </c>
+      <c r="Q53">
+        <v>-843</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>19216</v>
+      </c>
+      <c r="U53">
+        <v>22157</v>
+      </c>
+      <c r="V53">
+        <v>-2026</v>
+      </c>
+      <c r="W53">
+        <v>-250</v>
+      </c>
+      <c r="X53">
+        <v>682</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>32</v>
+      </c>
+      <c r="AA53">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1308</v>
+      </c>
+      <c r="D54">
+        <v>8077</v>
+      </c>
+      <c r="E54">
+        <v>66585</v>
+      </c>
+      <c r="F54">
+        <v>6172</v>
+      </c>
+      <c r="G54">
+        <v>136069</v>
+      </c>
+      <c r="H54">
+        <v>153375</v>
+      </c>
+      <c r="I54">
+        <v>52378</v>
+      </c>
+      <c r="J54">
+        <v>55221</v>
+      </c>
+      <c r="K54">
+        <v>5463</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>66518</v>
+      </c>
+      <c r="O54">
+        <v>133879</v>
+      </c>
+      <c r="P54">
+        <v>60793</v>
+      </c>
+      <c r="Q54">
+        <v>-2800</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>63000</v>
+      </c>
+      <c r="T54">
+        <v>19496</v>
+      </c>
+      <c r="U54">
+        <v>19343</v>
+      </c>
+      <c r="V54">
+        <v>344</v>
+      </c>
+      <c r="W54">
+        <v>-246</v>
+      </c>
+      <c r="X54">
+        <v>2701</v>
+      </c>
+      <c r="Y54">
+        <v>109</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1432</v>
+      </c>
+      <c r="D55">
+        <v>7688</v>
+      </c>
+      <c r="E55">
+        <v>63476</v>
+      </c>
+      <c r="F55">
+        <v>5884</v>
+      </c>
+      <c r="G55">
+        <v>132539</v>
+      </c>
+      <c r="H55">
+        <v>151497</v>
+      </c>
+      <c r="I55">
+        <v>54515</v>
+      </c>
+      <c r="J55">
+        <v>54095</v>
+      </c>
+      <c r="K55">
+        <v>3002</v>
+      </c>
+      <c r="L55">
+        <v>-2245</v>
+      </c>
+      <c r="M55">
+        <v>-3500</v>
+      </c>
+      <c r="N55">
+        <v>61360</v>
+      </c>
+      <c r="O55">
+        <v>131520</v>
+      </c>
+      <c r="P55">
+        <v>57097</v>
+      </c>
+      <c r="Q55">
+        <v>1254</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>19977</v>
+      </c>
+      <c r="U55">
+        <v>20499</v>
+      </c>
+      <c r="V55">
+        <v>3285</v>
+      </c>
+      <c r="W55">
+        <v>-246</v>
+      </c>
+      <c r="X55">
+        <v>-3561</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>327</v>
+      </c>
+      <c r="AA55">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1529</v>
+      </c>
+      <c r="D56">
+        <v>8145</v>
+      </c>
+      <c r="E56">
+        <v>65871</v>
+      </c>
+      <c r="F56">
+        <v>6180</v>
+      </c>
+      <c r="G56">
+        <v>133192</v>
+      </c>
+      <c r="H56">
+        <v>152384</v>
+      </c>
+      <c r="I56">
+        <v>53781</v>
+      </c>
+      <c r="J56">
+        <v>54836</v>
+      </c>
+      <c r="K56">
+        <v>3610</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>61109</v>
+      </c>
+      <c r="O56">
+        <v>132171</v>
+      </c>
+      <c r="P56">
+        <v>58446</v>
+      </c>
+      <c r="Q56">
+        <v>-2310</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>20213</v>
+      </c>
+      <c r="U56">
+        <v>18133</v>
+      </c>
+      <c r="V56">
+        <v>1600</v>
+      </c>
+      <c r="W56">
+        <v>-243</v>
+      </c>
+      <c r="X56">
+        <v>-815</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-165</v>
+      </c>
+      <c r="AA56">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1477</v>
+      </c>
+      <c r="D57">
+        <v>7818</v>
+      </c>
+      <c r="E57">
+        <v>65766</v>
+      </c>
+      <c r="F57">
+        <v>5918</v>
+      </c>
+      <c r="G57">
+        <v>134961</v>
+      </c>
+      <c r="H57">
+        <v>153862</v>
+      </c>
+      <c r="I57">
+        <v>54213</v>
+      </c>
+      <c r="J57">
+        <v>55712</v>
+      </c>
+      <c r="K57">
+        <v>3475</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>61227</v>
+      </c>
+      <c r="O57">
+        <v>133646</v>
+      </c>
+      <c r="P57">
+        <v>59187</v>
+      </c>
+      <c r="Q57">
+        <v>2834</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>20216</v>
+      </c>
+      <c r="U57">
+        <v>21032</v>
+      </c>
+      <c r="V57">
+        <v>3701</v>
+      </c>
+      <c r="W57">
+        <v>-281</v>
+      </c>
+      <c r="X57">
+        <v>644</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>101</v>
+      </c>
+      <c r="AA57">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1447</v>
+      </c>
+      <c r="D58">
+        <v>8350</v>
+      </c>
+      <c r="E58">
+        <v>70104</v>
+      </c>
+      <c r="F58">
+        <v>6266</v>
+      </c>
+      <c r="G58">
+        <v>142113</v>
+      </c>
+      <c r="H58">
+        <v>159103</v>
+      </c>
+      <c r="I58">
+        <v>55471</v>
+      </c>
+      <c r="J58">
+        <v>57924</v>
+      </c>
+      <c r="K58">
+        <v>4127</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>67602</v>
+      </c>
+      <c r="O58">
+        <v>138430</v>
+      </c>
+      <c r="P58">
+        <v>62082</v>
+      </c>
+      <c r="Q58">
+        <v>1024</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>54000</v>
+      </c>
+      <c r="T58">
+        <v>20673</v>
+      </c>
+      <c r="U58">
+        <v>22084</v>
+      </c>
+      <c r="V58">
+        <v>2404</v>
+      </c>
+      <c r="W58">
+        <v>-271</v>
+      </c>
+      <c r="X58">
+        <v>3743</v>
+      </c>
+      <c r="Y58">
+        <v>31</v>
+      </c>
+      <c r="Z58">
+        <v>1199</v>
+      </c>
+      <c r="AA58">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1525</v>
+      </c>
+      <c r="D59">
+        <v>7536</v>
+      </c>
+      <c r="E59">
+        <v>66656</v>
+      </c>
+      <c r="F59">
+        <v>5635</v>
+      </c>
+      <c r="G59">
+        <v>136436</v>
+      </c>
+      <c r="H59">
+        <v>154684</v>
+      </c>
+      <c r="I59">
+        <v>55571</v>
+      </c>
+      <c r="J59">
+        <v>54712</v>
+      </c>
+      <c r="K59">
+        <v>2451</v>
+      </c>
+      <c r="L59">
+        <v>-1062</v>
+      </c>
+      <c r="M59">
+        <v>-3100</v>
+      </c>
+      <c r="N59">
+        <v>61386</v>
+      </c>
+      <c r="O59">
+        <v>132854</v>
+      </c>
+      <c r="P59">
+        <v>57163</v>
+      </c>
+      <c r="Q59">
+        <v>1284</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>21830</v>
+      </c>
+      <c r="U59">
+        <v>23346</v>
+      </c>
+      <c r="V59">
+        <v>2126</v>
+      </c>
+      <c r="W59">
+        <v>-268</v>
+      </c>
+      <c r="X59">
+        <v>-3542</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-8</v>
+      </c>
+      <c r="AA59">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1473</v>
+      </c>
+      <c r="D60">
+        <v>7813</v>
+      </c>
+      <c r="E60">
+        <v>68835</v>
+      </c>
+      <c r="F60">
+        <v>5772</v>
+      </c>
+      <c r="G60">
+        <v>138999</v>
+      </c>
+      <c r="H60">
+        <v>157152</v>
+      </c>
+      <c r="I60">
+        <v>58222</v>
+      </c>
+      <c r="J60">
+        <v>52740</v>
+      </c>
+      <c r="K60">
+        <v>4641</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>66088</v>
+      </c>
+      <c r="O60">
+        <v>135267</v>
+      </c>
+      <c r="P60">
+        <v>57381</v>
+      </c>
+      <c r="Q60">
+        <v>-2501</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>21885</v>
+      </c>
+      <c r="U60">
+        <v>20869</v>
+      </c>
+      <c r="V60">
+        <v>2109</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1119</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-213</v>
+      </c>
+      <c r="AA60">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1266</v>
+      </c>
+      <c r="D61">
+        <v>7658</v>
+      </c>
+      <c r="E61">
+        <v>68785</v>
+      </c>
+      <c r="F61">
+        <v>5626</v>
+      </c>
+      <c r="G61">
+        <v>136363</v>
+      </c>
+      <c r="H61">
+        <v>154216</v>
+      </c>
+      <c r="I61">
+        <v>60641</v>
+      </c>
+      <c r="J61">
+        <v>48653</v>
+      </c>
+      <c r="K61">
+        <v>3248</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>66933</v>
+      </c>
+      <c r="O61">
+        <v>132881</v>
+      </c>
+      <c r="P61">
+        <v>51901</v>
+      </c>
+      <c r="Q61">
+        <v>-1133</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>21335</v>
+      </c>
+      <c r="U61">
+        <v>19716</v>
+      </c>
+      <c r="V61">
+        <v>3589</v>
+      </c>
+      <c r="W61">
+        <v>-335</v>
+      </c>
+      <c r="X61">
+        <v>-4802</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>490</v>
+      </c>
+      <c r="AA61">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>899</v>
+      </c>
+      <c r="D62">
+        <v>7739</v>
+      </c>
+      <c r="E62">
+        <v>58799</v>
+      </c>
+      <c r="F62">
+        <v>5699</v>
+      </c>
+      <c r="G62">
+        <v>144858</v>
+      </c>
+      <c r="H62">
+        <v>161184</v>
+      </c>
+      <c r="I62">
+        <v>66819</v>
+      </c>
+      <c r="J62">
+        <v>48032</v>
+      </c>
+      <c r="K62">
+        <v>5221</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>79622</v>
+      </c>
+      <c r="O62">
+        <v>140511</v>
+      </c>
+      <c r="P62">
+        <v>53282</v>
+      </c>
+      <c r="Q62">
+        <v>2824</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>54800</v>
+      </c>
+      <c r="T62">
+        <v>20673</v>
+      </c>
+      <c r="U62">
+        <v>22721</v>
+      </c>
+      <c r="V62">
+        <v>2787</v>
+      </c>
+      <c r="W62">
+        <v>-304</v>
+      </c>
+      <c r="X62">
+        <v>5557</v>
+      </c>
+      <c r="Y62">
+        <v>29</v>
+      </c>
+      <c r="Z62">
+        <v>121</v>
+      </c>
+      <c r="AA62">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1426</v>
+      </c>
+      <c r="D63">
+        <v>7648</v>
+      </c>
+      <c r="E63">
+        <v>57580</v>
+      </c>
+      <c r="F63">
+        <v>5663</v>
+      </c>
+      <c r="G63">
+        <v>141191</v>
+      </c>
+      <c r="H63">
+        <v>158816</v>
+      </c>
+      <c r="I63">
+        <v>67791</v>
+      </c>
+      <c r="J63">
+        <v>47311</v>
+      </c>
+      <c r="K63">
+        <v>2932</v>
+      </c>
+      <c r="L63">
+        <v>-2217</v>
+      </c>
+      <c r="M63">
+        <v>-1036</v>
+      </c>
+      <c r="N63">
+        <v>73734</v>
+      </c>
+      <c r="O63">
+        <v>138089</v>
+      </c>
+      <c r="P63">
+        <v>50243</v>
+      </c>
+      <c r="Q63">
+        <v>2283</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>20727</v>
+      </c>
+      <c r="U63">
+        <v>25012</v>
+      </c>
+      <c r="V63">
+        <v>2529</v>
+      </c>
+      <c r="W63">
+        <v>-302</v>
+      </c>
+      <c r="X63">
+        <v>-3924</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-74</v>
+      </c>
+      <c r="AA63">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>2015</v>
+      </c>
+      <c r="D64">
+        <v>7780</v>
+      </c>
+      <c r="E64">
+        <v>59928</v>
+      </c>
+      <c r="F64">
+        <v>5733</v>
+      </c>
+      <c r="G64">
+        <v>141840</v>
+      </c>
+      <c r="H64">
+        <v>159642</v>
+      </c>
+      <c r="I64">
+        <v>66133</v>
+      </c>
+      <c r="J64">
+        <v>50649</v>
+      </c>
+      <c r="K64">
+        <v>2563</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>71499</v>
+      </c>
+      <c r="O64">
+        <v>138930</v>
+      </c>
+      <c r="P64">
+        <v>53212</v>
+      </c>
+      <c r="Q64">
+        <v>8722</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>20712</v>
+      </c>
+      <c r="U64">
+        <v>33638</v>
+      </c>
+      <c r="V64">
+        <v>671</v>
+      </c>
+      <c r="W64">
+        <v>-299</v>
+      </c>
+      <c r="X64">
+        <v>-410</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-105</v>
+      </c>
+      <c r="AA64">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1142</v>
+      </c>
+      <c r="D65">
+        <v>7281</v>
+      </c>
+      <c r="E65">
+        <v>60661</v>
+      </c>
+      <c r="F65">
+        <v>5437</v>
+      </c>
+      <c r="G65">
+        <v>135489</v>
+      </c>
+      <c r="H65">
+        <v>153377</v>
+      </c>
+      <c r="I65">
+        <v>64872</v>
+      </c>
+      <c r="J65">
+        <v>44894</v>
+      </c>
+      <c r="K65">
+        <v>3003</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>70531</v>
+      </c>
+      <c r="O65">
+        <v>132360</v>
+      </c>
+      <c r="P65">
+        <v>47897</v>
+      </c>
+      <c r="Q65">
+        <v>-7247</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>21017</v>
+      </c>
+      <c r="U65">
+        <v>26277</v>
+      </c>
+      <c r="V65">
+        <v>1751</v>
+      </c>
+      <c r="W65">
+        <v>-291</v>
+      </c>
+      <c r="X65">
+        <v>-6984</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>84</v>
+      </c>
+      <c r="AA65">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>825</v>
+      </c>
+      <c r="D66">
+        <v>7200</v>
+      </c>
+      <c r="E66">
+        <v>65461</v>
+      </c>
+      <c r="F66">
+        <v>5150</v>
+      </c>
+      <c r="G66">
+        <v>142279</v>
+      </c>
+      <c r="H66">
+        <v>158893</v>
+      </c>
+      <c r="I66">
+        <v>64232</v>
+      </c>
+      <c r="J66">
+        <v>46966</v>
+      </c>
+      <c r="K66">
+        <v>7836</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>78317</v>
+      </c>
+      <c r="O66">
+        <v>138392</v>
+      </c>
+      <c r="P66">
+        <v>54826</v>
+      </c>
+      <c r="Q66">
+        <v>-1312</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>56400</v>
+      </c>
+      <c r="T66">
+        <v>20501</v>
+      </c>
+      <c r="U66">
+        <v>25093</v>
+      </c>
+      <c r="V66">
+        <v>3340</v>
+      </c>
+      <c r="W66">
+        <v>-315</v>
+      </c>
+      <c r="X66">
+        <v>3719</v>
+      </c>
+      <c r="Y66">
+        <v>24</v>
+      </c>
+      <c r="Z66">
+        <v>460</v>
+      </c>
+      <c r="AA66">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1251</v>
+      </c>
+      <c r="D67">
+        <v>8136</v>
+      </c>
+      <c r="E67">
+        <v>63955</v>
+      </c>
+      <c r="F67">
+        <v>5758</v>
+      </c>
+      <c r="G67">
+        <v>143448</v>
+      </c>
+      <c r="H67">
+        <v>161385</v>
+      </c>
+      <c r="I67">
+        <v>65490</v>
+      </c>
+      <c r="J67">
+        <v>51647</v>
+      </c>
+      <c r="K67">
+        <v>3918</v>
+      </c>
+      <c r="L67">
+        <v>-1941</v>
+      </c>
+      <c r="M67">
+        <v>-3801</v>
+      </c>
+      <c r="N67">
+        <v>72114</v>
+      </c>
+      <c r="O67">
+        <v>140450</v>
+      </c>
+      <c r="P67">
+        <v>55565</v>
+      </c>
+      <c r="Q67">
+        <v>4183</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>20935</v>
+      </c>
+      <c r="U67">
+        <v>29292</v>
+      </c>
+      <c r="V67">
+        <v>1160</v>
+      </c>
+      <c r="W67">
+        <v>-313</v>
+      </c>
+      <c r="X67">
+        <v>2205</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-434</v>
+      </c>
+      <c r="AA67">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1344</v>
+      </c>
+      <c r="D68">
+        <v>8545</v>
+      </c>
+      <c r="E68">
+        <v>66506</v>
+      </c>
+      <c r="F68">
+        <v>6008</v>
+      </c>
+      <c r="G68">
+        <v>148883</v>
+      </c>
+      <c r="H68">
+        <v>166997</v>
+      </c>
+      <c r="I68">
+        <v>69832</v>
+      </c>
+      <c r="J68">
+        <v>51945</v>
+      </c>
+      <c r="K68">
+        <v>3787</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>76122</v>
+      </c>
+      <c r="O68">
+        <v>145822</v>
+      </c>
+      <c r="P68">
+        <v>55732</v>
+      </c>
+      <c r="Q68">
+        <v>1085</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>21175</v>
+      </c>
+      <c r="U68">
+        <v>30340</v>
+      </c>
+      <c r="V68">
+        <v>3124</v>
+      </c>
+      <c r="W68">
+        <v>-307</v>
+      </c>
+      <c r="X68">
+        <v>2769</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>169</v>
+      </c>
+      <c r="AA68">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1359</v>
+      </c>
+      <c r="D69">
+        <v>8528</v>
+      </c>
+      <c r="E69">
+        <v>68644</v>
+      </c>
+      <c r="F69">
+        <v>6009</v>
+      </c>
+      <c r="G69">
+        <v>150457</v>
+      </c>
+      <c r="H69">
+        <v>168577</v>
+      </c>
+      <c r="I69">
+        <v>73530</v>
+      </c>
+      <c r="J69">
+        <v>48762</v>
+      </c>
+      <c r="K69">
+        <v>2579</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>78475</v>
+      </c>
+      <c r="O69">
+        <v>147492</v>
+      </c>
+      <c r="P69">
+        <v>51341</v>
+      </c>
+      <c r="Q69">
+        <v>-2507</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>21085</v>
+      </c>
+      <c r="U69">
+        <v>26082</v>
+      </c>
+      <c r="V69">
+        <v>4297</v>
+      </c>
+      <c r="W69">
+        <v>-305</v>
+      </c>
+      <c r="X69">
+        <v>-2391</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>125</v>
+      </c>
+      <c r="AA69">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-1206</v>
+      </c>
+      <c r="D70">
+        <v>8663</v>
+      </c>
+      <c r="E70">
+        <v>74300</v>
+      </c>
+      <c r="F70">
+        <v>6018</v>
+      </c>
+      <c r="G70">
+        <v>165106</v>
+      </c>
+      <c r="H70">
+        <v>181196</v>
+      </c>
+      <c r="I70">
+        <v>79109</v>
+      </c>
+      <c r="J70">
+        <v>55781</v>
+      </c>
+      <c r="K70">
+        <v>6115</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>93323</v>
+      </c>
+      <c r="O70">
+        <v>162935</v>
+      </c>
+      <c r="P70">
+        <v>61919</v>
+      </c>
+      <c r="Q70">
+        <v>5008</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>55000</v>
+      </c>
+      <c r="T70">
+        <v>18261</v>
+      </c>
+      <c r="U70">
+        <v>32879</v>
+      </c>
+      <c r="V70">
+        <v>4959</v>
+      </c>
+      <c r="W70">
+        <v>-326</v>
+      </c>
+      <c r="X70">
+        <v>9662</v>
+      </c>
+      <c r="Y70">
+        <v>23</v>
+      </c>
+      <c r="Z70">
+        <v>24</v>
+      </c>
+      <c r="AA70">
+        <v>-1206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>8943</v>
+      </c>
+      <c r="E71">
+        <v>73906</v>
+      </c>
+      <c r="F71">
+        <v>6187</v>
+      </c>
+      <c r="G71">
+        <v>162081</v>
+      </c>
+      <c r="H71">
+        <v>179956</v>
+      </c>
+      <c r="I71">
+        <v>80703</v>
+      </c>
+      <c r="J71">
+        <v>52461</v>
+      </c>
+      <c r="K71">
+        <v>2052</v>
+      </c>
+      <c r="L71">
+        <v>-1489</v>
+      </c>
+      <c r="M71">
+        <v>-7203</v>
+      </c>
+      <c r="N71">
+        <v>85190</v>
+      </c>
+      <c r="O71">
+        <v>160343</v>
+      </c>
+      <c r="P71">
+        <v>54513</v>
+      </c>
+      <c r="Q71">
+        <v>-1757</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>19613</v>
+      </c>
+      <c r="U71">
+        <v>31043</v>
+      </c>
+      <c r="V71">
+        <v>2063</v>
+      </c>
+      <c r="W71">
+        <v>-324</v>
+      </c>
+      <c r="X71">
+        <v>-2949</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-329</v>
+      </c>
+      <c r="AA71">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1623</v>
+      </c>
+      <c r="D72">
+        <v>9196</v>
+      </c>
+      <c r="E72">
+        <v>76687</v>
+      </c>
+      <c r="F72">
+        <v>6347</v>
+      </c>
+      <c r="G72">
+        <v>165738</v>
+      </c>
+      <c r="H72">
+        <v>184861</v>
+      </c>
+      <c r="I72">
+        <v>81191</v>
+      </c>
+      <c r="J72">
+        <v>55883</v>
+      </c>
+      <c r="K72">
+        <v>2015</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>85428</v>
+      </c>
+      <c r="O72">
+        <v>163969</v>
+      </c>
+      <c r="P72">
+        <v>57898</v>
+      </c>
+      <c r="Q72">
+        <v>-244</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>20892</v>
+      </c>
+      <c r="U72">
+        <v>29688</v>
+      </c>
+      <c r="V72">
+        <v>3033</v>
+      </c>
+      <c r="W72">
+        <v>-321</v>
+      </c>
+      <c r="X72">
+        <v>4184</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-1497</v>
+      </c>
+      <c r="AA72">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1654</v>
+      </c>
+      <c r="D73">
+        <v>9327</v>
+      </c>
+      <c r="E73">
+        <v>79097</v>
+      </c>
+      <c r="F73">
+        <v>6470</v>
+      </c>
+      <c r="G73">
+        <v>168675</v>
+      </c>
+      <c r="H73">
+        <v>189092</v>
+      </c>
+      <c r="I73">
+        <v>84906</v>
+      </c>
+      <c r="J73">
+        <v>55300</v>
+      </c>
+      <c r="K73">
+        <v>2392</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>89368</v>
+      </c>
+      <c r="O73">
+        <v>167632</v>
+      </c>
+      <c r="P73">
+        <v>57692</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>21460</v>
+      </c>
+      <c r="U73">
+        <v>30176</v>
+      </c>
+      <c r="V73">
+        <v>5086</v>
+      </c>
+      <c r="W73">
+        <v>-325</v>
+      </c>
+      <c r="X73">
+        <v>626</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-1501</v>
+      </c>
+      <c r="AA73">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>2010</v>
+      </c>
+      <c r="D74">
+        <v>9520</v>
+      </c>
+      <c r="E74">
+        <v>83396</v>
+      </c>
+      <c r="F74">
+        <v>6509</v>
+      </c>
+      <c r="G74">
+        <v>166920</v>
+      </c>
+      <c r="H74">
+        <v>188602</v>
+      </c>
+      <c r="I74">
+        <v>82215</v>
+      </c>
+      <c r="J74">
+        <v>58404</v>
+      </c>
+      <c r="K74">
+        <v>3146</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>89637</v>
+      </c>
+      <c r="O74">
+        <v>166312</v>
+      </c>
+      <c r="P74">
+        <v>61569</v>
+      </c>
+      <c r="Q74">
+        <v>-3454</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>59000</v>
+      </c>
+      <c r="T74">
+        <v>22290</v>
+      </c>
+      <c r="U74">
+        <v>27381</v>
+      </c>
+      <c r="V74">
+        <v>-1252</v>
+      </c>
+      <c r="W74">
+        <v>-354</v>
+      </c>
+      <c r="X74">
+        <v>3240</v>
+      </c>
+      <c r="Y74">
+        <v>19</v>
+      </c>
+      <c r="Z74">
+        <v>1396</v>
+      </c>
+      <c r="AA74">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1550</v>
+      </c>
+      <c r="D75">
+        <v>9555</v>
+      </c>
+      <c r="E75">
+        <v>82839</v>
+      </c>
+      <c r="F75">
+        <v>6554</v>
+      </c>
+      <c r="G75">
+        <v>175929</v>
+      </c>
+      <c r="H75">
+        <v>197193</v>
+      </c>
+      <c r="I75">
+        <v>89019</v>
+      </c>
+      <c r="J75">
+        <v>58418</v>
+      </c>
+      <c r="K75">
+        <v>2250</v>
+      </c>
+      <c r="L75">
+        <v>-1099</v>
+      </c>
+      <c r="M75">
+        <v>-3821</v>
+      </c>
+      <c r="N75">
+        <v>93492</v>
+      </c>
+      <c r="O75">
+        <v>174975</v>
+      </c>
+      <c r="P75">
+        <v>60668</v>
+      </c>
+      <c r="Q75">
+        <v>5823</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>22218</v>
+      </c>
+      <c r="U75">
+        <v>32869</v>
+      </c>
+      <c r="V75">
+        <v>8547</v>
+      </c>
+      <c r="W75">
+        <v>-355</v>
+      </c>
+      <c r="X75">
+        <v>-83</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-1833</v>
+      </c>
+      <c r="AA75">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1761</v>
+      </c>
+      <c r="D76">
+        <v>9977</v>
+      </c>
+      <c r="E76">
+        <v>85121</v>
+      </c>
+      <c r="F76">
+        <v>6762</v>
+      </c>
+      <c r="G76">
+        <v>173854</v>
+      </c>
+      <c r="H76">
+        <v>197603</v>
+      </c>
+      <c r="I76">
+        <v>89108</v>
+      </c>
+      <c r="J76">
+        <v>57736</v>
+      </c>
+      <c r="K76">
+        <v>2895</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>94017</v>
+      </c>
+      <c r="O76">
+        <v>174511</v>
+      </c>
+      <c r="P76">
+        <v>60631</v>
+      </c>
+      <c r="Q76">
+        <v>-6299</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>23092</v>
+      </c>
+      <c r="U76">
+        <v>26807</v>
+      </c>
+      <c r="V76">
+        <v>2930</v>
+      </c>
+      <c r="W76">
+        <v>-347</v>
+      </c>
+      <c r="X76">
+        <v>-1461</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-2051</v>
+      </c>
+      <c r="AA76">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1755</v>
+      </c>
+      <c r="D77">
+        <v>10110</v>
+      </c>
+      <c r="E77">
+        <v>85763</v>
+      </c>
+      <c r="F77">
+        <v>6938</v>
+      </c>
+      <c r="G77">
+        <v>170183</v>
+      </c>
+      <c r="H77">
+        <v>194184</v>
+      </c>
+      <c r="I77">
+        <v>86164</v>
+      </c>
+      <c r="J77">
+        <v>58474</v>
+      </c>
+      <c r="K77">
+        <v>2878</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>90906</v>
+      </c>
+      <c r="O77">
+        <v>171159</v>
+      </c>
+      <c r="P77">
+        <v>61352</v>
+      </c>
+      <c r="Q77">
+        <v>-1978</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>23025</v>
+      </c>
+      <c r="U77">
+        <v>24235</v>
+      </c>
+      <c r="V77">
+        <v>-1041</v>
+      </c>
+      <c r="W77">
+        <v>-346</v>
+      </c>
+      <c r="X77">
+        <v>-398</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>39</v>
+      </c>
+      <c r="AA77">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1693</v>
+      </c>
+      <c r="D78">
+        <v>10341</v>
+      </c>
+      <c r="E78">
+        <v>89624</v>
+      </c>
+      <c r="F78">
+        <v>7067</v>
+      </c>
+      <c r="G78">
+        <v>170932</v>
+      </c>
+      <c r="H78">
+        <v>198321</v>
+      </c>
+      <c r="I78">
+        <v>86025</v>
+      </c>
+      <c r="J78">
+        <v>57810</v>
+      </c>
+      <c r="K78">
+        <v>6783</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>97509</v>
+      </c>
+      <c r="O78">
+        <v>175250</v>
+      </c>
+      <c r="P78">
+        <v>64618</v>
+      </c>
+      <c r="Q78">
+        <v>-908</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>64000</v>
+      </c>
+      <c r="T78">
+        <v>23071</v>
+      </c>
+      <c r="U78">
+        <v>23845</v>
+      </c>
+      <c r="V78">
+        <v>3196</v>
+      </c>
+      <c r="W78">
+        <v>-374</v>
+      </c>
+      <c r="X78">
+        <v>1423</v>
+      </c>
+      <c r="Y78">
+        <v>25</v>
+      </c>
+      <c r="Z78">
+        <v>30</v>
+      </c>
+      <c r="AA78">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>367</v>
+      </c>
+      <c r="D79">
+        <v>7689</v>
+      </c>
+      <c r="E79">
+        <v>77418</v>
+      </c>
+      <c r="F79">
+        <v>4841</v>
+      </c>
+      <c r="G79">
+        <v>161606</v>
+      </c>
+      <c r="H79">
+        <v>186060</v>
+      </c>
+      <c r="I79">
+        <v>85939</v>
+      </c>
+      <c r="J79">
+        <v>52588</v>
+      </c>
+      <c r="K79">
+        <v>3650</v>
+      </c>
+      <c r="L79">
+        <v>-2880</v>
+      </c>
+      <c r="M79">
+        <v>-5849</v>
+      </c>
+      <c r="N79">
+        <v>89589</v>
+      </c>
+      <c r="O79">
+        <v>165054</v>
+      </c>
+      <c r="P79">
+        <v>56238</v>
+      </c>
+      <c r="Q79">
+        <v>14162</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>21006</v>
+      </c>
+      <c r="U79">
+        <v>35865</v>
+      </c>
+      <c r="V79">
+        <v>-2219</v>
+      </c>
+      <c r="W79">
+        <v>-383</v>
+      </c>
+      <c r="X79">
+        <v>-5418</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>3379</v>
+      </c>
+      <c r="AA79">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>257</v>
+      </c>
+      <c r="D80">
+        <v>6120</v>
+      </c>
+      <c r="E80">
+        <v>68560</v>
+      </c>
+      <c r="F80">
+        <v>4563</v>
+      </c>
+      <c r="G80">
+        <v>147926</v>
+      </c>
+      <c r="H80">
+        <v>188608</v>
+      </c>
+      <c r="I80">
+        <v>92536</v>
+      </c>
+      <c r="J80">
+        <v>48797</v>
+      </c>
+      <c r="K80">
+        <v>1750</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>94286</v>
+      </c>
+      <c r="O80">
+        <v>167546</v>
+      </c>
+      <c r="P80">
+        <v>50547</v>
+      </c>
+      <c r="Q80">
+        <v>3495</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>21062</v>
+      </c>
+      <c r="U80">
+        <v>41248</v>
+      </c>
+      <c r="V80">
+        <v>2130</v>
+      </c>
+      <c r="W80">
+        <v>-366</v>
+      </c>
+      <c r="X80">
+        <v>638</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-14902</v>
+      </c>
+      <c r="AA80">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1073</v>
+      </c>
+      <c r="D81">
+        <v>8086</v>
+      </c>
+      <c r="E81">
+        <v>67062</v>
+      </c>
+      <c r="F81">
+        <v>5823</v>
+      </c>
+      <c r="G81">
+        <v>143287</v>
+      </c>
+      <c r="H81">
+        <v>187259</v>
+      </c>
+      <c r="I81">
+        <v>93693</v>
+      </c>
+      <c r="J81">
+        <v>44777</v>
+      </c>
+      <c r="K81">
+        <v>1857</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>95550</v>
+      </c>
+      <c r="O81">
+        <v>165390</v>
+      </c>
+      <c r="P81">
+        <v>46634</v>
+      </c>
+      <c r="Q81">
+        <v>-6476</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>21869</v>
+      </c>
+      <c r="U81">
+        <v>32726</v>
+      </c>
+      <c r="V81">
+        <v>2180</v>
+      </c>
+      <c r="W81">
+        <v>-363</v>
+      </c>
+      <c r="X81">
+        <v>-3602</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-2515</v>
+      </c>
+      <c r="AA81">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1438</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>9462</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>70643</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>6859</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>147073</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>191367</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>96319</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>42935</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>2466</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>102866</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>168383</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>46522</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-2662</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>63700</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>22984</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>32267</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>3500</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-362</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-686</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>980</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>704</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1438</v>
       </c>
     </row>
